--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_4_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_4_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>793235.7571890349</v>
+        <v>661320.5247922896</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>662509.1354302455</v>
+        <v>662509.1354302462</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23088686.66616631</v>
+        <v>23088686.66616632</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>71.65634810728008</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>71.65634810728008</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.11491141289252</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.65634810728034</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>71.65634810728034</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>71.65634810728034</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>63.1149114128923</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>71.65634810728008</v>
       </c>
     </row>
     <row r="12">
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4.16988246399254</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>71.65634810728034</v>
+        <v>39.70591042452665</v>
       </c>
       <c r="H12" t="n">
-        <v>71.65634810728034</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>71.65634810728034</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>58.94502894890002</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>23.40900098836566</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>71.65634810728008</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>71.65634810728008</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>71.65634810728008</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>71.65634810728037</v>
       </c>
       <c r="C14" t="n">
-        <v>71.65634810728032</v>
+        <v>71.65634810728037</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>71.65634810728032</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.65634810728032</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>63.11491141289253</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>63.11491141289244</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>71.65634810728037</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>71.65634810728037</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>71.65634810728037</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>71.65634810728037</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>71.65634810728032</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>71.65634810728032</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>58.94502894890002</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>23.40900098836562</v>
       </c>
       <c r="R15" t="n">
-        <v>52.4172295829072</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>39.70591042452691</v>
       </c>
     </row>
     <row r="16">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>75.0382614748651</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>75.0382614748651</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>62.91301118484755</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>62.9130111848477</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>75.0382614748651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>66.09370070706116</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>75.0382614748651</v>
+        <v>42.68469971869529</v>
       </c>
       <c r="H18" t="n">
-        <v>75.0382614748651</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>75.0382614748651</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1967,16 +1967,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>23.40900098836562</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>75.0382614748651</v>
+        <v>62.9130111848477</v>
       </c>
       <c r="F20" t="n">
-        <v>75.0382614748651</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.91301118484758</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>75.0382614748651</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2162,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>66.09370070706093</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2204,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>23.40900098836563</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>75.0382614748651</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>75.0382614748651</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>42.68469971869551</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>75.0382614748651</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>31.01405729509402</v>
+        <v>69.59962149502405</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>67.13066793251672</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
     </row>
     <row r="24">
@@ -2402,22 +2402,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>93.11485726225895</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>93.11485726225892</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2599,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>31.01405729509402</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>31.01405729509408</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>69.70585627389339</v>
       </c>
       <c r="G27" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="H27" t="n">
-        <v>93.11485726225892</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>23.40900098836562</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>31.01405729509402</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>31.01405729509413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>93.11485726225892</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>93.11485726225895</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
     </row>
     <row r="31">
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>69.59962149502405</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>67.13066793251672</v>
       </c>
       <c r="V32" t="n">
-        <v>31.01405729509402</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>69.70585627389329</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>105.7162321324466</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3152,25 +3152,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>23.40900098836563</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>93.11485726225895</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>75.03826147486481</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>75.03826147486481</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>62.91301118484757</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>62.9130111848477</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>75.03826147486481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>75.03826147486481</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>58.94502894890003</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>7.148671758160869</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>75.03826147486481</v>
+        <v>66.09370070706093</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>75.03826147486481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>62.9130111848476</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>62.9130111848477</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>75.03826147486484</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>75.03826147486484</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>75.03826147486484</v>
+        <v>75.03826147486487</v>
       </c>
     </row>
     <row r="39">
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>66.09370070706093</v>
       </c>
       <c r="C39" t="n">
-        <v>75.03826147486484</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="E39" t="n">
-        <v>75.03826147486484</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="F39" t="n">
-        <v>42.68469971869529</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>23.40900098836563</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>75.03826147486484</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.65634810728022</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>71.65634810728022</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.11491141289241</v>
+        <v>69.59962149502405</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>65.17163802514878</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.65634810728022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>71.65634810728022</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>71.65634810728022</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>71.65634810728022</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>63.11491141289252</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>63.11491141289241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>65.17163802514878</v>
       </c>
       <c r="F44" t="n">
-        <v>71.65634810728022</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>71.65634810728022</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>69.59962149502405</v>
       </c>
       <c r="R44" t="n">
-        <v>71.65634810728022</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>63.11491141289241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>4.16988246399237</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>71.65634810728022</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>71.65634810728022</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>71.65634810728022</v>
+        <v>63.11491141289252</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>58.94502894890003</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.732507848582427</v>
+        <v>78.11265745189561</v>
       </c>
       <c r="C11" t="n">
-        <v>5.732507848582427</v>
+        <v>78.11265745189561</v>
       </c>
       <c r="D11" t="n">
-        <v>5.732507848582427</v>
+        <v>78.11265745189561</v>
       </c>
       <c r="E11" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="F11" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="G11" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="H11" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="I11" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="J11" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="K11" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="L11" t="n">
-        <v>61.68584574306266</v>
+        <v>61.68584574306252</v>
       </c>
       <c r="M11" t="n">
-        <v>132.6256303692702</v>
+        <v>132.6256303692698</v>
       </c>
       <c r="N11" t="n">
-        <v>203.5654149954777</v>
+        <v>203.5654149954771</v>
       </c>
       <c r="O11" t="n">
-        <v>274.5051996216853</v>
+        <v>274.5051996216844</v>
       </c>
       <c r="P11" t="n">
-        <v>286.6253924291213</v>
+        <v>286.6253924291203</v>
       </c>
       <c r="Q11" t="n">
-        <v>286.6253924291213</v>
+        <v>286.6253924291203</v>
       </c>
       <c r="R11" t="n">
-        <v>222.8729566585228</v>
+        <v>286.6253924291203</v>
       </c>
       <c r="S11" t="n">
-        <v>150.4928070552094</v>
+        <v>286.6253924291203</v>
       </c>
       <c r="T11" t="n">
-        <v>78.1126574518959</v>
+        <v>286.6253924291203</v>
       </c>
       <c r="U11" t="n">
-        <v>5.732507848582427</v>
+        <v>286.6253924291203</v>
       </c>
       <c r="V11" t="n">
-        <v>5.732507848582427</v>
+        <v>286.6253924291203</v>
       </c>
       <c r="W11" t="n">
-        <v>5.732507848582427</v>
+        <v>286.6253924291203</v>
       </c>
       <c r="X11" t="n">
-        <v>5.732507848582427</v>
+        <v>222.872956658522</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.732507848582427</v>
+        <v>150.4928070552088</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>286.6253924291213</v>
+        <v>45.83948807537701</v>
       </c>
       <c r="C12" t="n">
-        <v>286.6253924291213</v>
+        <v>45.83948807537701</v>
       </c>
       <c r="D12" t="n">
-        <v>286.6253924291213</v>
+        <v>45.83948807537701</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6253924291213</v>
+        <v>45.83948807537701</v>
       </c>
       <c r="F12" t="n">
-        <v>282.41338994024</v>
+        <v>45.83948807537701</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0332403369266</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="H12" t="n">
-        <v>137.6530907336131</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="I12" t="n">
-        <v>65.27294113029961</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="J12" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="K12" t="n">
-        <v>32.8961251214053</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="L12" t="n">
-        <v>103.8359097476128</v>
+        <v>76.67229247478969</v>
       </c>
       <c r="M12" t="n">
-        <v>174.7756943738203</v>
+        <v>119.8469752824425</v>
       </c>
       <c r="N12" t="n">
-        <v>240.1657257543941</v>
+        <v>188.3629545473462</v>
       </c>
       <c r="O12" t="n">
-        <v>286.6253924291213</v>
+        <v>215.685607802913</v>
       </c>
       <c r="P12" t="n">
-        <v>286.6253924291213</v>
+        <v>286.6253924291203</v>
       </c>
       <c r="Q12" t="n">
-        <v>286.6253924291213</v>
+        <v>262.9799368853166</v>
       </c>
       <c r="R12" t="n">
-        <v>286.6253924291213</v>
+        <v>190.5997872820034</v>
       </c>
       <c r="S12" t="n">
-        <v>286.6253924291213</v>
+        <v>118.2196376786902</v>
       </c>
       <c r="T12" t="n">
-        <v>286.6253924291213</v>
+        <v>118.2196376786902</v>
       </c>
       <c r="U12" t="n">
-        <v>286.6253924291213</v>
+        <v>118.2196376786902</v>
       </c>
       <c r="V12" t="n">
-        <v>286.6253924291213</v>
+        <v>118.2196376786902</v>
       </c>
       <c r="W12" t="n">
-        <v>286.6253924291213</v>
+        <v>45.83948807537701</v>
       </c>
       <c r="X12" t="n">
-        <v>286.6253924291213</v>
+        <v>45.83948807537701</v>
       </c>
       <c r="Y12" t="n">
-        <v>286.6253924291213</v>
+        <v>45.83948807537701</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="C13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="D13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="E13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="F13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="G13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="H13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="I13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="J13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="K13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="L13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="M13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="N13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="O13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="P13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="R13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="S13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="T13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="U13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="V13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="W13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="X13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.732507848582427</v>
+        <v>5.732507848582407</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>286.6253924291213</v>
+        <v>78.11265745189593</v>
       </c>
       <c r="C14" t="n">
-        <v>214.2452428258078</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="D14" t="n">
-        <v>214.2452428258078</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="E14" t="n">
-        <v>214.2452428258078</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="F14" t="n">
-        <v>214.2452428258078</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="G14" t="n">
-        <v>214.2452428258078</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="H14" t="n">
-        <v>141.8650932224944</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="I14" t="n">
-        <v>69.48494361918095</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="J14" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="K14" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="L14" t="n">
-        <v>61.68584574306264</v>
+        <v>61.68584574306266</v>
       </c>
       <c r="M14" t="n">
         <v>132.6256303692702</v>
@@ -5293,7 +5293,7 @@
         <v>203.5654149954777</v>
       </c>
       <c r="O14" t="n">
-        <v>274.5051996216852</v>
+        <v>274.5051996216853</v>
       </c>
       <c r="P14" t="n">
         <v>286.6253924291213</v>
@@ -5311,19 +5311,19 @@
         <v>286.6253924291213</v>
       </c>
       <c r="U14" t="n">
-        <v>286.6253924291213</v>
+        <v>222.8729566585229</v>
       </c>
       <c r="V14" t="n">
-        <v>286.6253924291213</v>
+        <v>222.8729566585229</v>
       </c>
       <c r="W14" t="n">
-        <v>286.6253924291213</v>
+        <v>222.8729566585229</v>
       </c>
       <c r="X14" t="n">
-        <v>286.6253924291213</v>
+        <v>150.4928070552094</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.6253924291213</v>
+        <v>150.4928070552094</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>210.0332403369265</v>
+        <v>150.4928070552094</v>
       </c>
       <c r="C15" t="n">
-        <v>210.0332403369265</v>
+        <v>78.11265745189593</v>
       </c>
       <c r="D15" t="n">
-        <v>210.0332403369265</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="E15" t="n">
-        <v>210.0332403369265</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="F15" t="n">
-        <v>210.0332403369265</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="G15" t="n">
-        <v>210.0332403369265</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="H15" t="n">
-        <v>137.6530907336131</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="I15" t="n">
-        <v>65.27294113029961</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="J15" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="K15" t="n">
-        <v>5.732507848582426</v>
+        <v>32.8961251214053</v>
       </c>
       <c r="L15" t="n">
-        <v>76.67229247478994</v>
+        <v>103.8359097476128</v>
       </c>
       <c r="M15" t="n">
-        <v>147.6120771009975</v>
+        <v>147.0105925552657</v>
       </c>
       <c r="N15" t="n">
-        <v>215.6856078029138</v>
+        <v>215.6856078029139</v>
       </c>
       <c r="O15" t="n">
-        <v>286.6253924291213</v>
+        <v>286.6253924291215</v>
       </c>
       <c r="P15" t="n">
-        <v>286.6253924291213</v>
+        <v>286.6253924291215</v>
       </c>
       <c r="Q15" t="n">
-        <v>262.9799368853176</v>
+        <v>262.9799368853178</v>
       </c>
       <c r="R15" t="n">
-        <v>210.0332403369265</v>
+        <v>262.9799368853178</v>
       </c>
       <c r="S15" t="n">
-        <v>210.0332403369265</v>
+        <v>262.9799368853178</v>
       </c>
       <c r="T15" t="n">
-        <v>210.0332403369265</v>
+        <v>262.9799368853178</v>
       </c>
       <c r="U15" t="n">
-        <v>210.0332403369265</v>
+        <v>262.9799368853178</v>
       </c>
       <c r="V15" t="n">
-        <v>210.0332403369265</v>
+        <v>262.9799368853178</v>
       </c>
       <c r="W15" t="n">
-        <v>210.0332403369265</v>
+        <v>262.9799368853178</v>
       </c>
       <c r="X15" t="n">
-        <v>210.0332403369265</v>
+        <v>262.9799368853178</v>
       </c>
       <c r="Y15" t="n">
-        <v>210.0332403369265</v>
+        <v>222.8729566585229</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="C16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="D16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="E16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="F16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="G16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="H16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="I16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="J16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="K16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="L16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="M16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="N16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="O16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="P16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="R16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="S16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="T16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="U16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="V16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="W16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="X16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.732507848582426</v>
+        <v>5.732507848582429</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>221.1440044882698</v>
+        <v>81.79928462997391</v>
       </c>
       <c r="C17" t="n">
-        <v>221.1440044882698</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="D17" t="n">
-        <v>221.1440044882698</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="E17" t="n">
-        <v>221.1440044882698</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="F17" t="n">
-        <v>221.1440044882698</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="G17" t="n">
-        <v>221.1440044882698</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="H17" t="n">
-        <v>145.3477807762848</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="I17" t="n">
-        <v>69.55155706429987</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="J17" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="K17" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="L17" t="n">
-        <v>61.95639881246938</v>
+        <v>61.95639881246942</v>
       </c>
       <c r="M17" t="n">
-        <v>136.2442776725858</v>
+        <v>136.2442776725856</v>
       </c>
       <c r="N17" t="n">
-        <v>210.5321565327023</v>
+        <v>210.5321565327019</v>
       </c>
       <c r="O17" t="n">
-        <v>284.8200353928187</v>
+        <v>284.8200353928181</v>
       </c>
       <c r="P17" t="n">
-        <v>296.9402282002548</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="Q17" t="n">
-        <v>296.9402282002548</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="R17" t="n">
-        <v>296.9402282002548</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="S17" t="n">
-        <v>296.9402282002548</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="T17" t="n">
-        <v>296.9402282002548</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="U17" t="n">
-        <v>296.9402282002548</v>
+        <v>233.3917320539434</v>
       </c>
       <c r="V17" t="n">
-        <v>296.9402282002548</v>
+        <v>157.5955083419586</v>
       </c>
       <c r="W17" t="n">
-        <v>296.9402282002548</v>
+        <v>81.79928462997391</v>
       </c>
       <c r="X17" t="n">
-        <v>296.9402282002548</v>
+        <v>81.79928462997391</v>
       </c>
       <c r="Y17" t="n">
-        <v>221.1440044882698</v>
+        <v>81.79928462997391</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>300.1530458994604</v>
+        <v>49.11891921970161</v>
       </c>
       <c r="C18" t="n">
-        <v>300.1530458994604</v>
+        <v>49.11891921970161</v>
       </c>
       <c r="D18" t="n">
-        <v>300.1530458994604</v>
+        <v>49.11891921970161</v>
       </c>
       <c r="E18" t="n">
-        <v>300.1530458994604</v>
+        <v>49.11891921970161</v>
       </c>
       <c r="F18" t="n">
-        <v>233.3917320539441</v>
+        <v>49.11891921970161</v>
       </c>
       <c r="G18" t="n">
-        <v>157.5955083419591</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="H18" t="n">
-        <v>81.79928462997415</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="I18" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="J18" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="K18" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="L18" t="n">
-        <v>18.74159043241359</v>
+        <v>18.74159043241357</v>
       </c>
       <c r="M18" t="n">
-        <v>86.18725679865381</v>
+        <v>86.18725679865329</v>
       </c>
       <c r="N18" t="n">
-        <v>151.5772881792275</v>
+        <v>151.577288179227</v>
       </c>
       <c r="O18" t="n">
-        <v>225.8651670393439</v>
+        <v>225.8651670393432</v>
       </c>
       <c r="P18" t="n">
-        <v>300.1530458994604</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="Q18" t="n">
-        <v>300.1530458994604</v>
+        <v>276.5075903556558</v>
       </c>
       <c r="R18" t="n">
-        <v>300.1530458994604</v>
+        <v>200.7113666436711</v>
       </c>
       <c r="S18" t="n">
-        <v>300.1530458994604</v>
+        <v>124.9151429316863</v>
       </c>
       <c r="T18" t="n">
-        <v>300.1530458994604</v>
+        <v>49.11891921970161</v>
       </c>
       <c r="U18" t="n">
-        <v>300.1530458994604</v>
+        <v>49.11891921970161</v>
       </c>
       <c r="V18" t="n">
-        <v>300.1530458994604</v>
+        <v>49.11891921970161</v>
       </c>
       <c r="W18" t="n">
-        <v>300.1530458994604</v>
+        <v>49.11891921970161</v>
       </c>
       <c r="X18" t="n">
-        <v>300.1530458994604</v>
+        <v>49.11891921970161</v>
       </c>
       <c r="Y18" t="n">
-        <v>300.1530458994604</v>
+        <v>49.11891921970161</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="C19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="D19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="E19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="F19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="G19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="H19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="I19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="J19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="K19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="L19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="M19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="N19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="O19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="P19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="R19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="S19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="T19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="U19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="V19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="W19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="X19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>157.5955083419591</v>
+        <v>221.1440044882694</v>
       </c>
       <c r="C20" t="n">
-        <v>157.5955083419591</v>
+        <v>221.1440044882694</v>
       </c>
       <c r="D20" t="n">
-        <v>157.5955083419591</v>
+        <v>221.1440044882694</v>
       </c>
       <c r="E20" t="n">
-        <v>81.79928462997415</v>
+        <v>157.5955083419586</v>
       </c>
       <c r="F20" t="n">
-        <v>6.003060917989208</v>
+        <v>81.79928462997391</v>
       </c>
       <c r="G20" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="H20" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="I20" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="J20" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="K20" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="L20" t="n">
-        <v>61.95639881246938</v>
+        <v>61.95639881246942</v>
       </c>
       <c r="M20" t="n">
-        <v>136.2442776725858</v>
+        <v>136.2442776725856</v>
       </c>
       <c r="N20" t="n">
-        <v>210.5321565327023</v>
+        <v>210.5321565327019</v>
       </c>
       <c r="O20" t="n">
-        <v>284.8200353928187</v>
+        <v>284.8200353928181</v>
       </c>
       <c r="P20" t="n">
-        <v>296.9402282002548</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="Q20" t="n">
-        <v>233.3917320539441</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="R20" t="n">
-        <v>157.5955083419591</v>
+        <v>221.1440044882694</v>
       </c>
       <c r="S20" t="n">
-        <v>157.5955083419591</v>
+        <v>221.1440044882694</v>
       </c>
       <c r="T20" t="n">
-        <v>157.5955083419591</v>
+        <v>221.1440044882694</v>
       </c>
       <c r="U20" t="n">
-        <v>157.5955083419591</v>
+        <v>221.1440044882694</v>
       </c>
       <c r="V20" t="n">
-        <v>157.5955083419591</v>
+        <v>221.1440044882694</v>
       </c>
       <c r="W20" t="n">
-        <v>157.5955083419591</v>
+        <v>221.1440044882694</v>
       </c>
       <c r="X20" t="n">
-        <v>157.5955083419591</v>
+        <v>221.1440044882694</v>
       </c>
       <c r="Y20" t="n">
-        <v>157.5955083419591</v>
+        <v>221.1440044882694</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.003060917989208</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="C21" t="n">
-        <v>6.003060917989208</v>
+        <v>233.3917320539434</v>
       </c>
       <c r="D21" t="n">
-        <v>6.003060917989208</v>
+        <v>157.5955083419586</v>
       </c>
       <c r="E21" t="n">
-        <v>6.003060917989208</v>
+        <v>81.79928462997391</v>
       </c>
       <c r="F21" t="n">
-        <v>6.003060917989208</v>
+        <v>81.79928462997391</v>
       </c>
       <c r="G21" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="H21" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="I21" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="J21" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="K21" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="L21" t="n">
-        <v>80.29093977810565</v>
+        <v>80.29093977810541</v>
       </c>
       <c r="M21" t="n">
-        <v>154.5788186382221</v>
+        <v>154.5788186382216</v>
       </c>
       <c r="N21" t="n">
-        <v>225.8651670393439</v>
+        <v>225.8651670393432</v>
       </c>
       <c r="O21" t="n">
-        <v>300.1530458994604</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="P21" t="n">
-        <v>300.1530458994604</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="Q21" t="n">
-        <v>276.5075903556567</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="R21" t="n">
-        <v>276.5075903556567</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="S21" t="n">
-        <v>200.7113666436717</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="T21" t="n">
-        <v>124.9151429316868</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="U21" t="n">
-        <v>81.79928462997415</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="V21" t="n">
-        <v>6.003060917989208</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="W21" t="n">
-        <v>6.003060917989208</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="X21" t="n">
-        <v>6.003060917989208</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.003060917989208</v>
+        <v>300.1530458994595</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="C22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="D22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="E22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="F22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="G22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="H22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="I22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="J22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="K22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="L22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="M22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="N22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="O22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="P22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="R22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="S22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="T22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="U22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="V22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="W22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="X22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.003060917989208</v>
+        <v>6.003060917989189</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>222.0254442927101</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="C23" t="n">
-        <v>222.0254442927101</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="D23" t="n">
-        <v>222.0254442927101</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="E23" t="n">
-        <v>222.0254442927101</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="F23" t="n">
-        <v>222.0254442927101</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="G23" t="n">
-        <v>222.0254442927101</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="H23" t="n">
-        <v>115.2413714316529</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="I23" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="J23" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="K23" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="L23" t="n">
-        <v>64.4106364650759</v>
+        <v>64.41063646507597</v>
       </c>
       <c r="M23" t="n">
-        <v>169.069706276198</v>
+        <v>169.0697062761982</v>
       </c>
       <c r="N23" t="n">
-        <v>273.7287760873202</v>
+        <v>273.7287760873203</v>
       </c>
       <c r="O23" t="n">
-        <v>348.0166549474363</v>
+        <v>348.0166549474366</v>
       </c>
       <c r="P23" t="n">
-        <v>360.1368477548723</v>
+        <v>360.1368477548726</v>
       </c>
       <c r="Q23" t="n">
-        <v>328.8095171537673</v>
+        <v>289.8341997801008</v>
       </c>
       <c r="R23" t="n">
-        <v>328.8095171537673</v>
+        <v>183.0501269190436</v>
       </c>
       <c r="S23" t="n">
-        <v>328.8095171537673</v>
+        <v>183.0501269190436</v>
       </c>
       <c r="T23" t="n">
-        <v>328.8095171537673</v>
+        <v>183.0501269190436</v>
       </c>
       <c r="U23" t="n">
-        <v>328.8095171537673</v>
+        <v>183.0501269190436</v>
       </c>
       <c r="V23" t="n">
-        <v>328.8095171537673</v>
+        <v>115.241371431653</v>
       </c>
       <c r="W23" t="n">
-        <v>328.8095171537673</v>
+        <v>115.241371431653</v>
       </c>
       <c r="X23" t="n">
-        <v>328.8095171537673</v>
+        <v>115.241371431653</v>
       </c>
       <c r="Y23" t="n">
-        <v>222.0254442927101</v>
+        <v>8.457298570595734</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.5127099466148</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5127099466148</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="D24" t="n">
-        <v>102.5127099466148</v>
+        <v>328.8095171537675</v>
       </c>
       <c r="E24" t="n">
-        <v>102.5127099466148</v>
+        <v>222.0254442927102</v>
       </c>
       <c r="F24" t="n">
-        <v>102.5127099466148</v>
+        <v>115.241371431653</v>
       </c>
       <c r="G24" t="n">
-        <v>102.5127099466148</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="H24" t="n">
-        <v>102.5127099466148</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="I24" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="J24" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="K24" t="n">
-        <v>8.457298570595729</v>
+        <v>35.6209158434186</v>
       </c>
       <c r="L24" t="n">
-        <v>113.1163683817179</v>
+        <v>140.2799856545408</v>
       </c>
       <c r="M24" t="n">
-        <v>217.77543819284</v>
+        <v>244.939055465663</v>
       </c>
       <c r="N24" t="n">
-        <v>319.9157299618408</v>
+        <v>318.2058587186644</v>
       </c>
       <c r="O24" t="n">
-        <v>347.2383832174077</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="P24" t="n">
-        <v>422.8649285297864</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="Q24" t="n">
-        <v>422.8649285297864</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="R24" t="n">
-        <v>422.8649285297864</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="S24" t="n">
-        <v>422.8649285297864</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="T24" t="n">
-        <v>422.8649285297864</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="U24" t="n">
-        <v>422.8649285297864</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="V24" t="n">
-        <v>422.8649285297864</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="W24" t="n">
-        <v>316.0808556687292</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="X24" t="n">
-        <v>209.296782807672</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="Y24" t="n">
-        <v>102.5127099466148</v>
+        <v>422.8649285297867</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="C25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="D25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="E25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="F25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="G25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="H25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="I25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="J25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="K25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="L25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="M25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="N25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="O25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="P25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="R25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="S25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="T25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="U25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="V25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="W25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="X25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="C26" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="D26" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="E26" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="F26" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="G26" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="H26" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="I26" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="J26" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="K26" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="L26" t="n">
-        <v>64.4106364650759</v>
+        <v>64.41063646507597</v>
       </c>
       <c r="M26" t="n">
-        <v>169.069706276198</v>
+        <v>169.0697062761982</v>
       </c>
       <c r="N26" t="n">
-        <v>273.7287760873202</v>
+        <v>273.7287760873203</v>
       </c>
       <c r="O26" t="n">
-        <v>348.0166549474363</v>
+        <v>348.0166549474366</v>
       </c>
       <c r="P26" t="n">
-        <v>360.1368477548723</v>
+        <v>360.1368477548726</v>
       </c>
       <c r="Q26" t="n">
-        <v>328.8095171537673</v>
+        <v>360.1368477548726</v>
       </c>
       <c r="R26" t="n">
-        <v>222.0254442927101</v>
+        <v>360.1368477548726</v>
       </c>
       <c r="S26" t="n">
-        <v>115.2413714316529</v>
+        <v>360.1368477548726</v>
       </c>
       <c r="T26" t="n">
-        <v>115.2413714316529</v>
+        <v>328.8095171537675</v>
       </c>
       <c r="U26" t="n">
-        <v>115.2413714316529</v>
+        <v>222.0254442927102</v>
       </c>
       <c r="V26" t="n">
-        <v>115.2413714316529</v>
+        <v>115.241371431653</v>
       </c>
       <c r="W26" t="n">
-        <v>115.2413714316529</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="X26" t="n">
-        <v>115.2413714316529</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>316.0808556687292</v>
+        <v>185.6513272638685</v>
       </c>
       <c r="C27" t="n">
-        <v>316.0808556687292</v>
+        <v>185.6513272638685</v>
       </c>
       <c r="D27" t="n">
-        <v>316.0808556687292</v>
+        <v>185.6513272638685</v>
       </c>
       <c r="E27" t="n">
-        <v>209.296782807672</v>
+        <v>185.6513272638685</v>
       </c>
       <c r="F27" t="n">
-        <v>209.296782807672</v>
+        <v>115.241371431653</v>
       </c>
       <c r="G27" t="n">
-        <v>102.5127099466148</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="H27" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="I27" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="J27" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="K27" t="n">
-        <v>8.457298570595729</v>
+        <v>35.6209158434186</v>
       </c>
       <c r="L27" t="n">
-        <v>113.1163683817179</v>
+        <v>48.35944535784299</v>
       </c>
       <c r="M27" t="n">
-        <v>217.77543819284</v>
+        <v>137.9202435951635</v>
       </c>
       <c r="N27" t="n">
-        <v>318.2058587186643</v>
+        <v>242.5793134062857</v>
       </c>
       <c r="O27" t="n">
-        <v>422.8649285297864</v>
+        <v>347.2383832174079</v>
       </c>
       <c r="P27" t="n">
-        <v>422.8649285297864</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="Q27" t="n">
-        <v>422.8649285297864</v>
+        <v>399.219472985983</v>
       </c>
       <c r="R27" t="n">
-        <v>422.8649285297864</v>
+        <v>292.4354001249258</v>
       </c>
       <c r="S27" t="n">
-        <v>422.8649285297864</v>
+        <v>185.6513272638685</v>
       </c>
       <c r="T27" t="n">
-        <v>422.8649285297864</v>
+        <v>185.6513272638685</v>
       </c>
       <c r="U27" t="n">
-        <v>422.8649285297864</v>
+        <v>185.6513272638685</v>
       </c>
       <c r="V27" t="n">
-        <v>316.0808556687292</v>
+        <v>185.6513272638685</v>
       </c>
       <c r="W27" t="n">
-        <v>316.0808556687292</v>
+        <v>185.6513272638685</v>
       </c>
       <c r="X27" t="n">
-        <v>316.0808556687292</v>
+        <v>185.6513272638685</v>
       </c>
       <c r="Y27" t="n">
-        <v>316.0808556687292</v>
+        <v>185.6513272638685</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="C28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="D28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="E28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="F28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="G28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="H28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="I28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="J28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="K28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="L28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="M28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="N28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="O28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="P28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="R28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="S28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="T28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="U28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="V28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="W28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="X28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>253.3527748938152</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="C29" t="n">
-        <v>146.568702032758</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="D29" t="n">
-        <v>39.7846291717008</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="E29" t="n">
-        <v>39.7846291717008</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="F29" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="G29" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="H29" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="I29" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="J29" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="K29" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="L29" t="n">
-        <v>64.4106364650759</v>
+        <v>64.41063646507597</v>
       </c>
       <c r="M29" t="n">
-        <v>169.069706276198</v>
+        <v>169.0697062761982</v>
       </c>
       <c r="N29" t="n">
-        <v>273.7287760873202</v>
+        <v>273.7287760873203</v>
       </c>
       <c r="O29" t="n">
-        <v>348.0166549474363</v>
+        <v>348.0166549474366</v>
       </c>
       <c r="P29" t="n">
-        <v>360.1368477548723</v>
+        <v>360.1368477548726</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.1368477548723</v>
+        <v>360.1368477548726</v>
       </c>
       <c r="R29" t="n">
-        <v>360.1368477548723</v>
+        <v>253.3527748938154</v>
       </c>
       <c r="S29" t="n">
-        <v>360.1368477548723</v>
+        <v>253.3527748938154</v>
       </c>
       <c r="T29" t="n">
-        <v>360.1368477548723</v>
+        <v>253.3527748938154</v>
       </c>
       <c r="U29" t="n">
-        <v>360.1368477548723</v>
+        <v>146.5687020327582</v>
       </c>
       <c r="V29" t="n">
-        <v>360.1368477548723</v>
+        <v>39.78462917170091</v>
       </c>
       <c r="W29" t="n">
-        <v>360.1368477548723</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="X29" t="n">
-        <v>360.1368477548723</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="Y29" t="n">
-        <v>253.3527748938152</v>
+        <v>8.457298570595734</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>209.296782807672</v>
+        <v>115.241371431653</v>
       </c>
       <c r="C30" t="n">
-        <v>209.296782807672</v>
+        <v>115.241371431653</v>
       </c>
       <c r="D30" t="n">
-        <v>209.296782807672</v>
+        <v>115.241371431653</v>
       </c>
       <c r="E30" t="n">
-        <v>209.296782807672</v>
+        <v>115.241371431653</v>
       </c>
       <c r="F30" t="n">
-        <v>102.5127099466148</v>
+        <v>115.241371431653</v>
       </c>
       <c r="G30" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="H30" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="I30" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="J30" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="K30" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="L30" t="n">
-        <v>94.7455607875105</v>
+        <v>113.1163683817179</v>
       </c>
       <c r="M30" t="n">
-        <v>137.9202435951634</v>
+        <v>217.7754381928401</v>
       </c>
       <c r="N30" t="n">
-        <v>242.5793134062855</v>
+        <v>319.915729961841</v>
       </c>
       <c r="O30" t="n">
-        <v>347.2383832174077</v>
+        <v>347.2383832174079</v>
       </c>
       <c r="P30" t="n">
-        <v>422.8649285297864</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="Q30" t="n">
-        <v>422.8649285297864</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="R30" t="n">
-        <v>422.8649285297864</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="S30" t="n">
-        <v>422.8649285297864</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="T30" t="n">
-        <v>316.0808556687292</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="U30" t="n">
-        <v>316.0808556687292</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="V30" t="n">
-        <v>316.0808556687292</v>
+        <v>328.8095171537675</v>
       </c>
       <c r="W30" t="n">
-        <v>316.0808556687292</v>
+        <v>222.0254442927102</v>
       </c>
       <c r="X30" t="n">
-        <v>316.0808556687292</v>
+        <v>222.0254442927102</v>
       </c>
       <c r="Y30" t="n">
-        <v>316.0808556687292</v>
+        <v>115.241371431653</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="C31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="D31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="E31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="F31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="G31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="H31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="I31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="J31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="K31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="L31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="M31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="N31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="O31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="P31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="R31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="S31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="T31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="U31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="V31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="W31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="X31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.457298570595729</v>
+        <v>115.241371431653</v>
       </c>
       <c r="C32" t="n">
-        <v>8.457298570595729</v>
+        <v>115.241371431653</v>
       </c>
       <c r="D32" t="n">
-        <v>8.457298570595729</v>
+        <v>115.241371431653</v>
       </c>
       <c r="E32" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="F32" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="G32" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="H32" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="I32" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="J32" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="K32" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="L32" t="n">
-        <v>64.4106364650759</v>
+        <v>64.41063646507597</v>
       </c>
       <c r="M32" t="n">
-        <v>169.069706276198</v>
+        <v>169.0697062761982</v>
       </c>
       <c r="N32" t="n">
-        <v>273.7287760873202</v>
+        <v>273.7287760873203</v>
       </c>
       <c r="O32" t="n">
-        <v>348.0166549474363</v>
+        <v>348.0166549474366</v>
       </c>
       <c r="P32" t="n">
-        <v>360.1368477548723</v>
+        <v>360.1368477548726</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.1368477548723</v>
+        <v>289.8341997801008</v>
       </c>
       <c r="R32" t="n">
-        <v>360.1368477548723</v>
+        <v>183.0501269190436</v>
       </c>
       <c r="S32" t="n">
-        <v>360.1368477548723</v>
+        <v>183.0501269190436</v>
       </c>
       <c r="T32" t="n">
-        <v>360.1368477548723</v>
+        <v>183.0501269190436</v>
       </c>
       <c r="U32" t="n">
-        <v>360.1368477548723</v>
+        <v>115.241371431653</v>
       </c>
       <c r="V32" t="n">
-        <v>328.8095171537673</v>
+        <v>115.241371431653</v>
       </c>
       <c r="W32" t="n">
-        <v>222.0254442927101</v>
+        <v>115.241371431653</v>
       </c>
       <c r="X32" t="n">
-        <v>115.2413714316529</v>
+        <v>115.241371431653</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.457298570595729</v>
+        <v>115.241371431653</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>185.6513272638684</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="C33" t="n">
-        <v>185.6513272638684</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="D33" t="n">
-        <v>185.6513272638684</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="E33" t="n">
-        <v>185.6513272638684</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="F33" t="n">
-        <v>185.6513272638684</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="G33" t="n">
-        <v>185.6513272638684</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="H33" t="n">
-        <v>115.2413714316529</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="I33" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="J33" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="K33" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="L33" t="n">
         <v>113.1163683817179</v>
       </c>
       <c r="M33" t="n">
-        <v>215.2566601507187</v>
+        <v>217.7754381928401</v>
       </c>
       <c r="N33" t="n">
-        <v>319.9157299618408</v>
+        <v>319.915729961841</v>
       </c>
       <c r="O33" t="n">
-        <v>347.2383832174077</v>
+        <v>347.2383832174079</v>
       </c>
       <c r="P33" t="n">
-        <v>422.8649285297864</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="Q33" t="n">
-        <v>399.2194729859827</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="R33" t="n">
-        <v>399.2194729859827</v>
+        <v>422.8649285297867</v>
       </c>
       <c r="S33" t="n">
-        <v>399.2194729859827</v>
+        <v>328.8095171537675</v>
       </c>
       <c r="T33" t="n">
-        <v>399.2194729859827</v>
+        <v>222.0254442927102</v>
       </c>
       <c r="U33" t="n">
-        <v>399.2194729859827</v>
+        <v>115.241371431653</v>
       </c>
       <c r="V33" t="n">
-        <v>399.2194729859827</v>
+        <v>115.241371431653</v>
       </c>
       <c r="W33" t="n">
-        <v>292.4354001249255</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="X33" t="n">
-        <v>292.4354001249255</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="Y33" t="n">
-        <v>292.4354001249255</v>
+        <v>8.457298570595734</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="C34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="D34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="E34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="F34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="G34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="H34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="I34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="J34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="K34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="L34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="M34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="N34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="O34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="P34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="Q34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="R34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="S34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="T34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="U34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="V34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="W34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="X34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.457298570595729</v>
+        <v>8.457298570595734</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>221.1440044882692</v>
+        <v>157.5955083419586</v>
       </c>
       <c r="C35" t="n">
-        <v>221.1440044882692</v>
+        <v>81.79928462997391</v>
       </c>
       <c r="D35" t="n">
-        <v>221.1440044882692</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="E35" t="n">
-        <v>221.1440044882692</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="F35" t="n">
-        <v>221.1440044882692</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="G35" t="n">
-        <v>145.3477807762845</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="H35" t="n">
-        <v>145.3477807762845</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="I35" t="n">
-        <v>69.55155706429987</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="J35" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="K35" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="L35" t="n">
-        <v>61.95639881246936</v>
+        <v>61.95639881246942</v>
       </c>
       <c r="M35" t="n">
-        <v>136.2442776725855</v>
+        <v>136.2442776725856</v>
       </c>
       <c r="N35" t="n">
-        <v>210.5321565327017</v>
+        <v>210.5321565327019</v>
       </c>
       <c r="O35" t="n">
-        <v>284.8200353928179</v>
+        <v>284.8200353928181</v>
       </c>
       <c r="P35" t="n">
-        <v>296.9402282002539</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="Q35" t="n">
-        <v>296.9402282002539</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="R35" t="n">
-        <v>296.9402282002539</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="S35" t="n">
-        <v>296.9402282002539</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="T35" t="n">
-        <v>296.9402282002539</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="U35" t="n">
-        <v>296.9402282002539</v>
+        <v>221.1440044882694</v>
       </c>
       <c r="V35" t="n">
-        <v>296.9402282002539</v>
+        <v>157.5955083419586</v>
       </c>
       <c r="W35" t="n">
-        <v>296.9402282002539</v>
+        <v>157.5955083419586</v>
       </c>
       <c r="X35" t="n">
-        <v>296.9402282002539</v>
+        <v>157.5955083419586</v>
       </c>
       <c r="Y35" t="n">
-        <v>221.1440044882692</v>
+        <v>157.5955083419586</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>65.54349419970639</v>
+        <v>233.3917320539434</v>
       </c>
       <c r="C36" t="n">
-        <v>65.54349419970639</v>
+        <v>233.3917320539434</v>
       </c>
       <c r="D36" t="n">
-        <v>65.54349419970639</v>
+        <v>157.5955083419586</v>
       </c>
       <c r="E36" t="n">
-        <v>65.54349419970639</v>
+        <v>81.79928462997391</v>
       </c>
       <c r="F36" t="n">
-        <v>65.54349419970639</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="G36" t="n">
-        <v>65.54349419970639</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="H36" t="n">
-        <v>65.54349419970639</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="I36" t="n">
-        <v>65.54349419970639</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="J36" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="K36" t="n">
-        <v>33.16667819081202</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="L36" t="n">
-        <v>45.90520770523641</v>
+        <v>80.29093977810541</v>
       </c>
       <c r="M36" t="n">
-        <v>89.07989051288925</v>
+        <v>123.4656225857583</v>
       </c>
       <c r="N36" t="n">
-        <v>163.3677693730054</v>
+        <v>197.7535014458745</v>
       </c>
       <c r="O36" t="n">
-        <v>225.8651670393431</v>
+        <v>272.0413803059907</v>
       </c>
       <c r="P36" t="n">
-        <v>300.1530458994592</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="Q36" t="n">
-        <v>300.1530458994592</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="R36" t="n">
-        <v>300.1530458994592</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="S36" t="n">
-        <v>300.1530458994592</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="T36" t="n">
-        <v>300.1530458994592</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="U36" t="n">
-        <v>300.1530458994592</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="V36" t="n">
-        <v>292.9321653356604</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="W36" t="n">
-        <v>217.1359416236757</v>
+        <v>233.3917320539434</v>
       </c>
       <c r="X36" t="n">
-        <v>217.1359416236757</v>
+        <v>233.3917320539434</v>
       </c>
       <c r="Y36" t="n">
-        <v>141.3397179116911</v>
+        <v>233.3917320539434</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="C37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="D37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="E37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="F37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="G37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="H37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="I37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="J37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="K37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="L37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="M37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="N37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="O37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="P37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="R37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="S37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="T37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="U37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="V37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="W37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="X37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.003060917989185</v>
+        <v>6.003060917989189</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>69.5515570642999</v>
+        <v>157.5955083419586</v>
       </c>
       <c r="C38" t="n">
-        <v>6.003060917989187</v>
+        <v>157.5955083419586</v>
       </c>
       <c r="D38" t="n">
-        <v>6.003060917989187</v>
+        <v>157.5955083419586</v>
       </c>
       <c r="E38" t="n">
-        <v>6.003060917989187</v>
+        <v>157.5955083419586</v>
       </c>
       <c r="F38" t="n">
-        <v>6.003060917989187</v>
+        <v>81.79928462997391</v>
       </c>
       <c r="G38" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="H38" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="I38" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="J38" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="K38" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="L38" t="n">
-        <v>61.95639881246936</v>
+        <v>61.95639881246942</v>
       </c>
       <c r="M38" t="n">
         <v>136.2442776725856</v>
       </c>
       <c r="N38" t="n">
-        <v>210.5321565327017</v>
+        <v>210.5321565327019</v>
       </c>
       <c r="O38" t="n">
-        <v>284.8200353928179</v>
+        <v>284.8200353928181</v>
       </c>
       <c r="P38" t="n">
-        <v>296.940228200254</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="Q38" t="n">
-        <v>296.940228200254</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="R38" t="n">
-        <v>296.940228200254</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="S38" t="n">
-        <v>296.940228200254</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="T38" t="n">
-        <v>296.940228200254</v>
+        <v>296.9402282002542</v>
       </c>
       <c r="U38" t="n">
-        <v>296.940228200254</v>
+        <v>233.3917320539434</v>
       </c>
       <c r="V38" t="n">
-        <v>296.940228200254</v>
+        <v>233.3917320539434</v>
       </c>
       <c r="W38" t="n">
-        <v>221.1440044882693</v>
+        <v>233.3917320539434</v>
       </c>
       <c r="X38" t="n">
-        <v>145.3477807762846</v>
+        <v>233.3917320539434</v>
       </c>
       <c r="Y38" t="n">
-        <v>69.5515570642999</v>
+        <v>157.5955083419586</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>200.711366643671</v>
+        <v>233.3917320539434</v>
       </c>
       <c r="C39" t="n">
-        <v>124.9151429316863</v>
+        <v>233.3917320539434</v>
       </c>
       <c r="D39" t="n">
-        <v>124.9151429316863</v>
+        <v>157.5955083419586</v>
       </c>
       <c r="E39" t="n">
-        <v>49.11891921970161</v>
+        <v>81.79928462997391</v>
       </c>
       <c r="F39" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="G39" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="H39" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="I39" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="J39" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="K39" t="n">
-        <v>33.16667819081203</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="L39" t="n">
-        <v>107.4545570509282</v>
+        <v>80.29093977810541</v>
       </c>
       <c r="M39" t="n">
-        <v>150.6292398585811</v>
+        <v>133.1524824032026</v>
       </c>
       <c r="N39" t="n">
-        <v>216.0192712391548</v>
+        <v>198.5425137837764</v>
       </c>
       <c r="O39" t="n">
-        <v>243.3419244947216</v>
+        <v>225.8651670393432</v>
       </c>
       <c r="P39" t="n">
-        <v>300.1530458994594</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="Q39" t="n">
-        <v>276.5075903556557</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="R39" t="n">
-        <v>276.5075903556557</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="S39" t="n">
-        <v>276.5075903556557</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="T39" t="n">
-        <v>276.5075903556557</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="U39" t="n">
-        <v>276.5075903556557</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="V39" t="n">
-        <v>276.5075903556557</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="W39" t="n">
-        <v>200.711366643671</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="X39" t="n">
-        <v>200.711366643671</v>
+        <v>300.1530458994595</v>
       </c>
       <c r="Y39" t="n">
-        <v>200.711366643671</v>
+        <v>300.1530458994595</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="C40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="D40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="E40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="F40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="G40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="H40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="I40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="J40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="K40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="L40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="M40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="N40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="O40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="P40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="R40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="S40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="T40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="U40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="V40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="W40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="X40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.003060917989187</v>
+        <v>6.003060917989189</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.11265745189577</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="C41" t="n">
-        <v>78.11265745189577</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="D41" t="n">
-        <v>78.11265745189577</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="E41" t="n">
-        <v>78.11265745189577</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="F41" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="G41" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="H41" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="I41" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="J41" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="K41" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="L41" t="n">
-        <v>61.68584574306259</v>
+        <v>61.68584574306266</v>
       </c>
       <c r="M41" t="n">
-        <v>132.62563036927</v>
+        <v>132.6256303692702</v>
       </c>
       <c r="N41" t="n">
-        <v>203.5654149954775</v>
+        <v>203.5654149954777</v>
       </c>
       <c r="O41" t="n">
-        <v>274.5051996216849</v>
+        <v>274.5051996216853</v>
       </c>
       <c r="P41" t="n">
-        <v>286.6253924291209</v>
+        <v>286.6253924291213</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.8729566585225</v>
+        <v>216.3227444543496</v>
       </c>
       <c r="R41" t="n">
-        <v>222.8729566585225</v>
+        <v>143.9425948510361</v>
       </c>
       <c r="S41" t="n">
-        <v>222.8729566585225</v>
+        <v>143.9425948510361</v>
       </c>
       <c r="T41" t="n">
-        <v>222.8729566585225</v>
+        <v>143.9425948510361</v>
       </c>
       <c r="U41" t="n">
-        <v>222.8729566585225</v>
+        <v>71.56244524772262</v>
       </c>
       <c r="V41" t="n">
-        <v>222.8729566585225</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="W41" t="n">
-        <v>222.8729566585225</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="X41" t="n">
-        <v>222.8729566585225</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="Y41" t="n">
-        <v>150.4928070552091</v>
+        <v>5.732507848582427</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.4928070552091</v>
+        <v>78.1126574518959</v>
       </c>
       <c r="C42" t="n">
-        <v>78.11265745189577</v>
+        <v>78.1126574518959</v>
       </c>
       <c r="D42" t="n">
-        <v>78.11265745189577</v>
+        <v>78.1126574518959</v>
       </c>
       <c r="E42" t="n">
-        <v>78.11265745189577</v>
+        <v>78.1126574518959</v>
       </c>
       <c r="F42" t="n">
-        <v>78.11265745189577</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="G42" t="n">
-        <v>78.11265745189577</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="H42" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="I42" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="J42" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="K42" t="n">
-        <v>32.89612512140526</v>
+        <v>32.8961251214053</v>
       </c>
       <c r="L42" t="n">
-        <v>45.63465463582963</v>
+        <v>103.8359097476128</v>
       </c>
       <c r="M42" t="n">
-        <v>88.80933744348249</v>
+        <v>174.7756943738203</v>
       </c>
       <c r="N42" t="n">
-        <v>154.1993688240562</v>
+        <v>240.1657257543941</v>
       </c>
       <c r="O42" t="n">
-        <v>215.6856078029135</v>
+        <v>286.6253924291213</v>
       </c>
       <c r="P42" t="n">
-        <v>286.6253924291209</v>
+        <v>286.6253924291213</v>
       </c>
       <c r="Q42" t="n">
-        <v>286.6253924291209</v>
+        <v>286.6253924291213</v>
       </c>
       <c r="R42" t="n">
-        <v>286.6253924291209</v>
+        <v>222.8729566585228</v>
       </c>
       <c r="S42" t="n">
-        <v>286.6253924291209</v>
+        <v>150.4928070552094</v>
       </c>
       <c r="T42" t="n">
-        <v>286.6253924291209</v>
+        <v>78.1126574518959</v>
       </c>
       <c r="U42" t="n">
-        <v>286.6253924291209</v>
+        <v>78.1126574518959</v>
       </c>
       <c r="V42" t="n">
-        <v>286.6253924291209</v>
+        <v>78.1126574518959</v>
       </c>
       <c r="W42" t="n">
-        <v>286.6253924291209</v>
+        <v>78.1126574518959</v>
       </c>
       <c r="X42" t="n">
-        <v>286.6253924291209</v>
+        <v>78.1126574518959</v>
       </c>
       <c r="Y42" t="n">
-        <v>222.8729566585225</v>
+        <v>78.1126574518959</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="C43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="D43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="E43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="F43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="G43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="H43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="I43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="J43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="K43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="L43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="M43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="N43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="O43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="P43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="R43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="S43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="T43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="U43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="V43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="W43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="X43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>150.4928070552091</v>
+        <v>143.9425948510361</v>
       </c>
       <c r="C44" t="n">
-        <v>150.4928070552091</v>
+        <v>143.9425948510361</v>
       </c>
       <c r="D44" t="n">
-        <v>150.4928070552091</v>
+        <v>143.9425948510361</v>
       </c>
       <c r="E44" t="n">
-        <v>150.4928070552091</v>
+        <v>78.1126574518959</v>
       </c>
       <c r="F44" t="n">
-        <v>78.11265745189577</v>
+        <v>78.1126574518959</v>
       </c>
       <c r="G44" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="H44" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="I44" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="J44" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="K44" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="L44" t="n">
-        <v>61.6858457430626</v>
+        <v>61.68584574306264</v>
       </c>
       <c r="M44" t="n">
-        <v>132.62563036927</v>
+        <v>132.6256303692702</v>
       </c>
       <c r="N44" t="n">
-        <v>203.5654149954774</v>
+        <v>203.5654149954777</v>
       </c>
       <c r="O44" t="n">
-        <v>274.5051996216849</v>
+        <v>274.5051996216853</v>
       </c>
       <c r="P44" t="n">
-        <v>286.6253924291209</v>
+        <v>286.6253924291213</v>
       </c>
       <c r="Q44" t="n">
-        <v>286.6253924291209</v>
+        <v>216.3227444543496</v>
       </c>
       <c r="R44" t="n">
-        <v>214.2452428258075</v>
+        <v>216.3227444543496</v>
       </c>
       <c r="S44" t="n">
-        <v>214.2452428258075</v>
+        <v>216.3227444543496</v>
       </c>
       <c r="T44" t="n">
-        <v>214.2452428258075</v>
+        <v>216.3227444543496</v>
       </c>
       <c r="U44" t="n">
-        <v>214.2452428258075</v>
+        <v>143.9425948510361</v>
       </c>
       <c r="V44" t="n">
-        <v>214.2452428258075</v>
+        <v>143.9425948510361</v>
       </c>
       <c r="W44" t="n">
-        <v>214.2452428258075</v>
+        <v>143.9425948510361</v>
       </c>
       <c r="X44" t="n">
-        <v>214.2452428258075</v>
+        <v>143.9425948510361</v>
       </c>
       <c r="Y44" t="n">
-        <v>150.4928070552091</v>
+        <v>143.9425948510361</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>286.6253924291209</v>
+        <v>69.48494361918094</v>
       </c>
       <c r="C45" t="n">
-        <v>282.4133899402397</v>
+        <v>69.48494361918094</v>
       </c>
       <c r="D45" t="n">
-        <v>282.4133899402397</v>
+        <v>69.48494361918094</v>
       </c>
       <c r="E45" t="n">
-        <v>210.0332403369264</v>
+        <v>69.48494361918094</v>
       </c>
       <c r="F45" t="n">
-        <v>137.653090733613</v>
+        <v>69.48494361918094</v>
       </c>
       <c r="G45" t="n">
-        <v>65.27294113029963</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="H45" t="n">
-        <v>65.27294113029963</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="I45" t="n">
-        <v>65.27294113029963</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="J45" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="K45" t="n">
-        <v>32.89612512140526</v>
+        <v>32.8961251214053</v>
       </c>
       <c r="L45" t="n">
-        <v>52.03313854056555</v>
+        <v>103.8359097476128</v>
       </c>
       <c r="M45" t="n">
-        <v>122.972923166773</v>
+        <v>174.7756943738203</v>
       </c>
       <c r="N45" t="n">
-        <v>188.3629545473466</v>
+        <v>240.1657257543941</v>
       </c>
       <c r="O45" t="n">
-        <v>215.6856078029135</v>
+        <v>286.6253924291213</v>
       </c>
       <c r="P45" t="n">
-        <v>286.6253924291209</v>
+        <v>286.6253924291213</v>
       </c>
       <c r="Q45" t="n">
-        <v>286.6253924291209</v>
+        <v>286.6253924291213</v>
       </c>
       <c r="R45" t="n">
-        <v>286.6253924291209</v>
+        <v>286.6253924291213</v>
       </c>
       <c r="S45" t="n">
-        <v>286.6253924291209</v>
+        <v>286.6253924291213</v>
       </c>
       <c r="T45" t="n">
-        <v>286.6253924291209</v>
+        <v>286.6253924291213</v>
       </c>
       <c r="U45" t="n">
-        <v>286.6253924291209</v>
+        <v>214.2452428258079</v>
       </c>
       <c r="V45" t="n">
-        <v>286.6253924291209</v>
+        <v>141.8650932224944</v>
       </c>
       <c r="W45" t="n">
-        <v>286.6253924291209</v>
+        <v>69.48494361918094</v>
       </c>
       <c r="X45" t="n">
-        <v>286.6253924291209</v>
+        <v>69.48494361918094</v>
       </c>
       <c r="Y45" t="n">
-        <v>286.6253924291209</v>
+        <v>69.48494361918094</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="C46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="D46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="E46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="F46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="G46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="H46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="I46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="J46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="K46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="L46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="M46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="N46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="O46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="P46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="R46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="S46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="T46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="U46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="V46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="W46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="X46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
       <c r="Y46" t="n">
-        <v>5.732507848582418</v>
+        <v>5.732507848582427</v>
       </c>
     </row>
   </sheetData>
@@ -8698,13 +8698,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>82.81363468297013</v>
+        <v>82.81363468296996</v>
       </c>
       <c r="N11" t="n">
-        <v>76.17831795743655</v>
+        <v>76.17831795743643</v>
       </c>
       <c r="O11" t="n">
-        <v>95.62613376072926</v>
+        <v>95.62613376072909</v>
       </c>
       <c r="P11" t="n">
         <v>83.66766412458549</v>
@@ -8771,22 +8771,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>68.76096162327045</v>
+        <v>41.32296437799491</v>
       </c>
       <c r="L12" t="n">
-        <v>58.78914657755874</v>
+        <v>58.78914657755854</v>
       </c>
       <c r="M12" t="n">
-        <v>28.04555739247945</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.15752311548502</v>
       </c>
       <c r="O12" t="n">
-        <v>19.33031658501053</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>6.409870035900042</v>
+        <v>78.06621814318015</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8935,13 +8935,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>82.81363468297013</v>
+        <v>82.81363468297016</v>
       </c>
       <c r="N14" t="n">
-        <v>76.17831795743655</v>
+        <v>76.17831795743658</v>
       </c>
       <c r="O14" t="n">
-        <v>95.62613376072926</v>
+        <v>95.62613376072929</v>
       </c>
       <c r="P14" t="n">
         <v>83.66766412458549</v>
@@ -9008,19 +9008,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>41.32296437799482</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>58.78914657755872</v>
+        <v>58.78914657755877</v>
       </c>
       <c r="M15" t="n">
-        <v>28.04555739247944</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.710605375093536</v>
+        <v>3.318165522297434</v>
       </c>
       <c r="O15" t="n">
-        <v>44.05770845519257</v>
+        <v>44.05770845519262</v>
       </c>
       <c r="P15" t="n">
         <v>6.409870035900042</v>
@@ -9172,13 +9172,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>86.19554805055495</v>
+        <v>86.19554805055466</v>
       </c>
       <c r="N17" t="n">
-        <v>79.56023132502136</v>
+        <v>79.56023132502108</v>
       </c>
       <c r="O17" t="n">
-        <v>99.00804712831408</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9245,22 +9245,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>41.32296437799485</v>
+        <v>41.32296437799482</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>24.51614500867412</v>
+        <v>24.51614500867358</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>47.43962182277738</v>
+        <v>47.43962182277713</v>
       </c>
       <c r="P18" t="n">
-        <v>81.44813151076517</v>
+        <v>81.44813151076494</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9409,13 +9409,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>86.19554805055495</v>
+        <v>86.19554805055466</v>
       </c>
       <c r="N20" t="n">
-        <v>79.56023132502136</v>
+        <v>79.56023132502108</v>
       </c>
       <c r="O20" t="n">
-        <v>99.00804712831408</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9482,19 +9482,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>41.32296437799485</v>
+        <v>41.32296437799482</v>
       </c>
       <c r="L21" t="n">
-        <v>62.1710599451435</v>
+        <v>62.17105994514327</v>
       </c>
       <c r="M21" t="n">
-        <v>31.42747076006424</v>
+        <v>31.42747076006398</v>
       </c>
       <c r="N21" t="n">
-        <v>5.95587577833146</v>
+        <v>5.955875778331205</v>
       </c>
       <c r="O21" t="n">
-        <v>47.43962182277738</v>
+        <v>47.43962182277713</v>
       </c>
       <c r="P21" t="n">
         <v>6.409870035900042</v>
@@ -9719,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>41.32296437799485</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>92.84903060272501</v>
+        <v>92.84903060272507</v>
       </c>
       <c r="M24" t="n">
-        <v>62.10544141764575</v>
+        <v>62.10544141764578</v>
       </c>
       <c r="N24" t="n">
-        <v>37.12147513982542</v>
+        <v>7.956335224674476</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>78.11759248035892</v>
       </c>
       <c r="P24" t="n">
-        <v>82.80031984638366</v>
+        <v>6.409870035900042</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9956,22 +9956,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>41.32296437799485</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>92.84903060272501</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>62.10544141764575</v>
+        <v>46.8546620501693</v>
       </c>
       <c r="N27" t="n">
-        <v>35.3943324699501</v>
+        <v>39.66569538439239</v>
       </c>
       <c r="O27" t="n">
-        <v>78.11759248035889</v>
+        <v>78.11759248035892</v>
       </c>
       <c r="P27" t="n">
-        <v>6.409870035900042</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10193,19 +10193,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>41.32296437799485</v>
+        <v>41.32296437799482</v>
       </c>
       <c r="L30" t="n">
-        <v>74.29265929544484</v>
+        <v>92.84903060272507</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>62.10544141764578</v>
       </c>
       <c r="N30" t="n">
-        <v>39.66569538439239</v>
+        <v>37.12147513982542</v>
       </c>
       <c r="O30" t="n">
-        <v>78.11759248035889</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>82.80031984638366</v>
@@ -10430,16 +10430,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>41.32296437799485</v>
+        <v>41.32296437799482</v>
       </c>
       <c r="L33" t="n">
-        <v>92.84903060272501</v>
+        <v>92.84903060272507</v>
       </c>
       <c r="M33" t="n">
-        <v>59.56122117307876</v>
+        <v>62.10544141764578</v>
       </c>
       <c r="N33" t="n">
-        <v>39.66569538439239</v>
+        <v>37.12147513982542</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.76096162327045</v>
+        <v>41.32296437799482</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>62.17105994514327</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>8.987724726810598</v>
       </c>
       <c r="O36" t="n">
-        <v>35.53004485936447</v>
+        <v>47.43962182277713</v>
       </c>
       <c r="P36" t="n">
-        <v>81.44813151076482</v>
+        <v>34.80549184748462</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10831,13 +10831,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>86.19554805055469</v>
+        <v>86.19554805055466</v>
       </c>
       <c r="N38" t="n">
-        <v>79.56023132502111</v>
+        <v>79.56023132502108</v>
       </c>
       <c r="O38" t="n">
-        <v>99.00804712831382</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10904,13 +10904,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>68.76096162327045</v>
+        <v>41.32296437799482</v>
       </c>
       <c r="L39" t="n">
-        <v>62.17105994514324</v>
+        <v>62.17105994514327</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>9.784706886307426</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>63.79484115179679</v>
+        <v>81.44813151076494</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11068,13 +11068,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>82.81363468297008</v>
+        <v>82.81363468297013</v>
       </c>
       <c r="N41" t="n">
-        <v>76.17831795743649</v>
+        <v>76.17831795743655</v>
       </c>
       <c r="O41" t="n">
-        <v>95.6261337607292</v>
+        <v>95.62613376072926</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11144,19 +11144,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>58.78914657755874</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>28.04555739247945</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>34.50867244776815</v>
+        <v>19.33031658501053</v>
       </c>
       <c r="P42" t="n">
-        <v>78.06621814318027</v>
+        <v>6.409870035900042</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11305,13 +11305,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>82.81363468297008</v>
+        <v>82.81363468297013</v>
       </c>
       <c r="N44" t="n">
-        <v>76.17831795743649</v>
+        <v>76.17831795743655</v>
       </c>
       <c r="O44" t="n">
-        <v>95.6261337607292</v>
+        <v>95.62613376072926</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11381,19 +11381,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>6.463115055288796</v>
+        <v>58.78914657755874</v>
       </c>
       <c r="M45" t="n">
-        <v>28.0455573924794</v>
+        <v>28.04555739247945</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>19.33031658501053</v>
       </c>
       <c r="P45" t="n">
-        <v>78.06621814318027</v>
+        <v>6.409870035900042</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364.5563275970632</v>
+        <v>292.899979489783</v>
       </c>
       <c r="C11" t="n">
         <v>333.5971194742085</v>
@@ -23266,7 +23266,7 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E11" t="n">
-        <v>359.9585549362873</v>
+        <v>288.3022068290072</v>
       </c>
       <c r="F11" t="n">
         <v>399.146417573369</v>
@@ -23281,10 +23281,10 @@
         <v>236.1147562142789</v>
       </c>
       <c r="J11" t="n">
-        <v>63.37259224262232</v>
+        <v>63.37259224262237</v>
       </c>
       <c r="K11" t="n">
-        <v>1.638969641873302</v>
+        <v>1.638969641873388</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>69.59962149502405</v>
+        <v>69.59962149502414</v>
       </c>
       <c r="R11" t="n">
-        <v>118.5676980656191</v>
+        <v>181.6826094785117</v>
       </c>
       <c r="S11" t="n">
-        <v>153.4622895570402</v>
+        <v>225.1186376643205</v>
       </c>
       <c r="T11" t="n">
-        <v>145.7377301518949</v>
+        <v>217.3940782591752</v>
       </c>
       <c r="U11" t="n">
-        <v>177.0968563766649</v>
+        <v>248.7532044839453</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23323,10 +23323,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X11" t="n">
-        <v>348.8168793035129</v>
+        <v>285.7019678906206</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.9289763951821</v>
+        <v>306.2726282879021</v>
       </c>
     </row>
     <row r="12">
@@ -23348,19 +23348,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F12" t="n">
-        <v>169.8144656613314</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>89.12032824085895</v>
+        <v>121.0707659236126</v>
       </c>
       <c r="H12" t="n">
-        <v>63.79262809191809</v>
+        <v>135.4489761991985</v>
       </c>
       <c r="I12" t="n">
-        <v>37.09016470731487</v>
+        <v>108.7465128145952</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>58.94502894890005</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,13 +23381,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>23.40900098836562</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>139.5973657252208</v>
+        <v>67.94101761794079</v>
       </c>
       <c r="S12" t="n">
-        <v>203.5963641084886</v>
+        <v>131.9400160012085</v>
       </c>
       <c r="T12" t="n">
         <v>229.1348189901331</v>
@@ -23399,7 +23399,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W12" t="n">
-        <v>283.2492567629311</v>
+        <v>211.592908655651</v>
       </c>
       <c r="X12" t="n">
         <v>230.033063710963</v>
@@ -23439,28 +23439,28 @@
         <v>161.7277780533601</v>
       </c>
       <c r="J13" t="n">
-        <v>118.1562616108815</v>
+        <v>118.1562616108816</v>
       </c>
       <c r="K13" t="n">
-        <v>64.25419589433906</v>
+        <v>64.25419589433909</v>
       </c>
       <c r="L13" t="n">
-        <v>31.3155773512164</v>
+        <v>31.31557735121645</v>
       </c>
       <c r="M13" t="n">
-        <v>26.3317670346544</v>
+        <v>26.33176703465446</v>
       </c>
       <c r="N13" t="n">
-        <v>14.7342674067572</v>
+        <v>14.73426740675724</v>
       </c>
       <c r="O13" t="n">
-        <v>42.48900223235087</v>
+        <v>42.48900223235091</v>
       </c>
       <c r="P13" t="n">
-        <v>65.68738632761188</v>
+        <v>65.68738632761192</v>
       </c>
       <c r="Q13" t="n">
-        <v>134.910282651292</v>
+        <v>134.9102826512921</v>
       </c>
       <c r="R13" t="n">
         <v>212.0708810556908</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.5563275970632</v>
+        <v>292.8999794897828</v>
       </c>
       <c r="C14" t="n">
         <v>261.9407713669281</v>
@@ -23512,13 +23512,13 @@
         <v>421.7352084143284</v>
       </c>
       <c r="H14" t="n">
-        <v>273.4424269451715</v>
+        <v>345.0987750524518</v>
       </c>
       <c r="I14" t="n">
-        <v>164.4584081069986</v>
+        <v>236.1147562142789</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2576808297297859</v>
+        <v>63.37259224262232</v>
       </c>
       <c r="K14" t="n">
         <v>1.638969641873302</v>
@@ -23551,7 +23551,7 @@
         <v>217.3940782591752</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7532044839453</v>
+        <v>185.6382930710528</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23560,7 +23560,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X14" t="n">
-        <v>348.8168793035129</v>
+        <v>277.1605311962326</v>
       </c>
       <c r="Y14" t="n">
         <v>377.9289763951821</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>188.0127573810344</v>
+        <v>116.3564092737541</v>
       </c>
       <c r="C15" t="n">
-        <v>203.8424276152394</v>
+        <v>132.186079507959</v>
       </c>
       <c r="D15" t="n">
-        <v>172.0989423795122</v>
+        <v>100.4425942722318</v>
       </c>
       <c r="E15" t="n">
         <v>187.4605452976028</v>
@@ -23591,13 +23591,13 @@
         <v>160.7766763481393</v>
       </c>
       <c r="H15" t="n">
-        <v>63.7926280919181</v>
+        <v>135.4489761991984</v>
       </c>
       <c r="I15" t="n">
-        <v>37.09016470731488</v>
+        <v>108.7465128145952</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>58.94502894890002</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>87.18013614231364</v>
+        <v>139.5973657252208</v>
       </c>
       <c r="S15" t="n">
         <v>203.5963641084886</v>
@@ -23642,7 +23642,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y15" t="n">
-        <v>242.8962664135933</v>
+        <v>203.1903559890664</v>
       </c>
     </row>
     <row r="16">
@@ -23734,7 +23734,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C17" t="n">
-        <v>333.5971194742085</v>
+        <v>258.5588579993436</v>
       </c>
       <c r="D17" t="n">
         <v>319.1317556432476</v>
@@ -23749,16 +23749,16 @@
         <v>421.7352084143284</v>
       </c>
       <c r="H17" t="n">
-        <v>270.0605135775867</v>
+        <v>345.0987750524518</v>
       </c>
       <c r="I17" t="n">
-        <v>161.0764947394138</v>
+        <v>236.1147562142789</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4595810577747699</v>
+        <v>63.37259224262232</v>
       </c>
       <c r="K17" t="n">
-        <v>1.638969641873331</v>
+        <v>1.638969641873302</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>69.59962149502408</v>
+        <v>69.59962149502405</v>
       </c>
       <c r="R17" t="n">
         <v>181.6826094785117</v>
@@ -23788,19 +23788,19 @@
         <v>217.3940782591752</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7532044839453</v>
+        <v>185.8401932990976</v>
       </c>
       <c r="V17" t="n">
-        <v>313.3044420010231</v>
+        <v>238.2661805261583</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3917254792934</v>
+        <v>250.3534640044285</v>
       </c>
       <c r="X17" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y17" t="n">
-        <v>302.890714920317</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="18">
@@ -23822,19 +23822,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8906474182628</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>85.73841487327419</v>
+        <v>118.091976629444</v>
       </c>
       <c r="H18" t="n">
-        <v>60.41071472433333</v>
+        <v>135.4489761991984</v>
       </c>
       <c r="I18" t="n">
-        <v>33.70825133973011</v>
+        <v>108.7465128145952</v>
       </c>
       <c r="J18" t="n">
-        <v>58.94502894890003</v>
+        <v>58.94502894890002</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,16 +23855,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>23.40900098836563</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>139.5973657252208</v>
+        <v>64.55910425035597</v>
       </c>
       <c r="S18" t="n">
-        <v>203.5963641084886</v>
+        <v>128.5581026336237</v>
       </c>
       <c r="T18" t="n">
-        <v>229.1348189901331</v>
+        <v>154.0965575152682</v>
       </c>
       <c r="U18" t="n">
         <v>249.6338774975503</v>
@@ -23913,25 +23913,25 @@
         <v>161.7277780533601</v>
       </c>
       <c r="J19" t="n">
-        <v>118.1562616108816</v>
+        <v>118.1562616108815</v>
       </c>
       <c r="K19" t="n">
         <v>64.25419589433906</v>
       </c>
       <c r="L19" t="n">
-        <v>31.31557735121642</v>
+        <v>31.3155773512164</v>
       </c>
       <c r="M19" t="n">
-        <v>26.33176703465443</v>
+        <v>26.3317670346544</v>
       </c>
       <c r="N19" t="n">
-        <v>14.73426740675721</v>
+        <v>14.7342674067572</v>
       </c>
       <c r="O19" t="n">
-        <v>42.48900223235088</v>
+        <v>42.48900223235087</v>
       </c>
       <c r="P19" t="n">
-        <v>65.68738632761189</v>
+        <v>65.68738632761188</v>
       </c>
       <c r="Q19" t="n">
         <v>134.910282651292</v>
@@ -23977,13 +23977,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>284.9202934614223</v>
+        <v>297.0455437514397</v>
       </c>
       <c r="F20" t="n">
-        <v>324.108156098504</v>
+        <v>324.1081560985042</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7352084143284</v>
+        <v>346.6969469394636</v>
       </c>
       <c r="H20" t="n">
         <v>345.0987750524518</v>
@@ -23995,7 +23995,7 @@
         <v>63.37259224262232</v>
       </c>
       <c r="K20" t="n">
-        <v>1.638969641873331</v>
+        <v>1.638969641873302</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.686610310176498</v>
+        <v>69.59962149502405</v>
       </c>
       <c r="R20" t="n">
-        <v>106.6443480036466</v>
+        <v>106.6443480036468</v>
       </c>
       <c r="S20" t="n">
         <v>225.1186376643205</v>
@@ -24050,19 +24050,19 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
-        <v>203.8424276152394</v>
+        <v>137.7487269081785</v>
       </c>
       <c r="D21" t="n">
-        <v>172.0989423795122</v>
+        <v>97.06068090464734</v>
       </c>
       <c r="E21" t="n">
-        <v>187.4605452976028</v>
+        <v>112.422283822738</v>
       </c>
       <c r="F21" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7766763481393</v>
+        <v>85.73841487327442</v>
       </c>
       <c r="H21" t="n">
         <v>135.4489761991984</v>
@@ -24071,7 +24071,7 @@
         <v>108.7465128145952</v>
       </c>
       <c r="J21" t="n">
-        <v>58.94502894890003</v>
+        <v>58.94502894890002</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,22 +24092,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>23.40900098836562</v>
       </c>
       <c r="R21" t="n">
         <v>139.5973657252208</v>
       </c>
       <c r="S21" t="n">
-        <v>128.5581026336235</v>
+        <v>203.5963641084886</v>
       </c>
       <c r="T21" t="n">
-        <v>154.096557515268</v>
+        <v>229.1348189901331</v>
       </c>
       <c r="U21" t="n">
-        <v>206.9491777788548</v>
+        <v>249.6338774975503</v>
       </c>
       <c r="V21" t="n">
-        <v>174.2616637053073</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
         <v>283.2492567629311</v>
@@ -24150,25 +24150,25 @@
         <v>161.7277780533601</v>
       </c>
       <c r="J22" t="n">
-        <v>118.1562616108816</v>
+        <v>118.1562616108815</v>
       </c>
       <c r="K22" t="n">
         <v>64.25419589433906</v>
       </c>
       <c r="L22" t="n">
-        <v>31.31557735121642</v>
+        <v>31.3155773512164</v>
       </c>
       <c r="M22" t="n">
-        <v>26.33176703465443</v>
+        <v>26.3317670346544</v>
       </c>
       <c r="N22" t="n">
-        <v>14.73426740675721</v>
+        <v>14.7342674067572</v>
       </c>
       <c r="O22" t="n">
-        <v>42.48900223235088</v>
+        <v>42.48900223235087</v>
       </c>
       <c r="P22" t="n">
-        <v>65.68738632761189</v>
+        <v>65.68738632761188</v>
       </c>
       <c r="Q22" t="n">
         <v>134.910282651292</v>
@@ -24223,16 +24223,16 @@
         <v>421.7352084143284</v>
       </c>
       <c r="H23" t="n">
-        <v>239.3825429200052</v>
+        <v>345.0987750524518</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3985240818323</v>
+        <v>236.1147562142789</v>
       </c>
       <c r="J23" t="n">
         <v>63.37259224262232</v>
       </c>
       <c r="K23" t="n">
-        <v>1.638969641873331</v>
+        <v>1.638969641873302</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>38.58556419993006</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>181.6826094785117</v>
+        <v>75.966377346065</v>
       </c>
       <c r="S23" t="n">
         <v>225.1186376643205</v>
@@ -24265,7 +24265,7 @@
         <v>248.7532044839453</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>246.1737740685064</v>
       </c>
       <c r="W23" t="n">
         <v>325.3917254792934</v>
@@ -24274,7 +24274,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>272.2127442627356</v>
+        <v>272.2127442627354</v>
       </c>
     </row>
     <row r="24">
@@ -24290,25 +24290,25 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
-        <v>172.0989423795122</v>
+        <v>78.98408511725326</v>
       </c>
       <c r="E24" t="n">
-        <v>187.4605452976028</v>
+        <v>81.74431316515617</v>
       </c>
       <c r="F24" t="n">
-        <v>173.9843481253239</v>
+        <v>68.26811599287726</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7766763481393</v>
+        <v>55.06044421569263</v>
       </c>
       <c r="H24" t="n">
         <v>135.4489761991984</v>
       </c>
       <c r="I24" t="n">
-        <v>15.63165555233628</v>
+        <v>108.7465128145952</v>
       </c>
       <c r="J24" t="n">
-        <v>58.94502894890003</v>
+        <v>58.94502894890002</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>23.40900098836563</v>
+        <v>23.40900098836562</v>
       </c>
       <c r="R24" t="n">
         <v>139.5973657252208</v>
@@ -24347,13 +24347,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W24" t="n">
-        <v>177.5330246304845</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X24" t="n">
-        <v>124.3168315785164</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>137.1800342811467</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="25">
@@ -24387,25 +24387,25 @@
         <v>161.7277780533601</v>
       </c>
       <c r="J25" t="n">
-        <v>118.1562616108816</v>
+        <v>118.1562616108815</v>
       </c>
       <c r="K25" t="n">
         <v>64.25419589433906</v>
       </c>
       <c r="L25" t="n">
-        <v>31.31557735121642</v>
+        <v>31.3155773512164</v>
       </c>
       <c r="M25" t="n">
-        <v>26.33176703465443</v>
+        <v>26.3317670346544</v>
       </c>
       <c r="N25" t="n">
-        <v>14.73426740675721</v>
+        <v>14.7342674067572</v>
       </c>
       <c r="O25" t="n">
-        <v>42.48900223235088</v>
+        <v>42.48900223235087</v>
       </c>
       <c r="P25" t="n">
-        <v>65.68738632761189</v>
+        <v>65.68738632761188</v>
       </c>
       <c r="Q25" t="n">
         <v>134.910282651292</v>
@@ -24469,7 +24469,7 @@
         <v>63.37259224262232</v>
       </c>
       <c r="K26" t="n">
-        <v>1.638969641873331</v>
+        <v>1.638969641873302</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24487,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>38.58556419993006</v>
+        <v>69.59962149502405</v>
       </c>
       <c r="R26" t="n">
-        <v>75.96637734606509</v>
+        <v>181.6826094785117</v>
       </c>
       <c r="S26" t="n">
-        <v>119.4024055318739</v>
+        <v>225.1186376643205</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3940782591752</v>
+        <v>186.3800209640811</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7532044839453</v>
+        <v>143.0369723514986</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>207.5882098685765</v>
       </c>
       <c r="W26" t="n">
-        <v>325.3917254792934</v>
+        <v>219.6754933468467</v>
       </c>
       <c r="X26" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
-        <v>272.2127442627356</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="27">
@@ -24530,22 +24530,22 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E27" t="n">
-        <v>81.74431316515623</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
-        <v>173.9843481253239</v>
+        <v>104.2784918514305</v>
       </c>
       <c r="G27" t="n">
-        <v>55.06044421569268</v>
+        <v>55.06044421569263</v>
       </c>
       <c r="H27" t="n">
-        <v>42.3341189369395</v>
+        <v>135.4489761991984</v>
       </c>
       <c r="I27" t="n">
         <v>108.7465128145952</v>
       </c>
       <c r="J27" t="n">
-        <v>58.94502894890003</v>
+        <v>58.94502894890002</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,13 +24566,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>23.40900098836563</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>139.5973657252208</v>
+        <v>33.88113359277418</v>
       </c>
       <c r="S27" t="n">
-        <v>203.5963641084886</v>
+        <v>97.88013197604189</v>
       </c>
       <c r="T27" t="n">
         <v>229.1348189901331</v>
@@ -24581,7 +24581,7 @@
         <v>249.6338774975503</v>
       </c>
       <c r="V27" t="n">
-        <v>143.5836930477258</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
         <v>283.2492567629311</v>
@@ -24624,25 +24624,25 @@
         <v>161.7277780533601</v>
       </c>
       <c r="J28" t="n">
-        <v>118.1562616108816</v>
+        <v>118.1562616108815</v>
       </c>
       <c r="K28" t="n">
         <v>64.25419589433906</v>
       </c>
       <c r="L28" t="n">
-        <v>31.31557735121642</v>
+        <v>31.3155773512164</v>
       </c>
       <c r="M28" t="n">
-        <v>26.33176703465443</v>
+        <v>26.3317670346544</v>
       </c>
       <c r="N28" t="n">
-        <v>14.73426740675721</v>
+        <v>14.7342674067572</v>
       </c>
       <c r="O28" t="n">
-        <v>42.48900223235088</v>
+        <v>42.48900223235087</v>
       </c>
       <c r="P28" t="n">
-        <v>65.68738632761189</v>
+        <v>65.68738632761188</v>
       </c>
       <c r="Q28" t="n">
         <v>134.910282651292</v>
@@ -24682,16 +24682,16 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>227.8808873417618</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>213.415523510801</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>368.132360278275</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
         <v>421.7352084143284</v>
@@ -24706,7 +24706,7 @@
         <v>63.37259224262232</v>
       </c>
       <c r="K29" t="n">
-        <v>1.638969641873331</v>
+        <v>1.638969641873302</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.59962149502408</v>
+        <v>69.59962149502405</v>
       </c>
       <c r="R29" t="n">
-        <v>181.6826094785117</v>
+        <v>75.966377346065</v>
       </c>
       <c r="S29" t="n">
         <v>225.1186376643205</v>
@@ -24736,19 +24736,19 @@
         <v>217.3940782591752</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7532044839453</v>
+        <v>143.0369723514986</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>207.5882098685765</v>
       </c>
       <c r="W29" t="n">
-        <v>325.3917254792934</v>
+        <v>294.3776681841993</v>
       </c>
       <c r="X29" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
-        <v>272.2127442627356</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.29652524858784</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
         <v>203.8424276152394</v>
@@ -24770,10 +24770,10 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
-        <v>68.26811599287731</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>67.66181908588037</v>
+        <v>55.06044421569263</v>
       </c>
       <c r="H30" t="n">
         <v>135.4489761991984</v>
@@ -24782,7 +24782,7 @@
         <v>108.7465128145952</v>
       </c>
       <c r="J30" t="n">
-        <v>58.94502894890003</v>
+        <v>58.94502894890002</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>23.40900098836563</v>
+        <v>23.40900098836562</v>
       </c>
       <c r="R30" t="n">
         <v>139.5973657252208</v>
@@ -24812,22 +24812,22 @@
         <v>203.5963641084886</v>
       </c>
       <c r="T30" t="n">
-        <v>123.4185868576865</v>
+        <v>229.1348189901331</v>
       </c>
       <c r="U30" t="n">
         <v>249.6338774975503</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>156.1850679179134</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>177.5330246304844</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
-        <v>242.8962664135933</v>
+        <v>137.1800342811467</v>
       </c>
     </row>
     <row r="31">
@@ -24861,25 +24861,25 @@
         <v>161.7277780533601</v>
       </c>
       <c r="J31" t="n">
-        <v>118.1562616108816</v>
+        <v>118.1562616108815</v>
       </c>
       <c r="K31" t="n">
         <v>64.25419589433906</v>
       </c>
       <c r="L31" t="n">
-        <v>31.31557735121642</v>
+        <v>31.3155773512164</v>
       </c>
       <c r="M31" t="n">
-        <v>26.33176703465443</v>
+        <v>26.3317670346544</v>
       </c>
       <c r="N31" t="n">
-        <v>14.73426740675721</v>
+        <v>14.7342674067572</v>
       </c>
       <c r="O31" t="n">
-        <v>42.48900223235088</v>
+        <v>42.48900223235087</v>
       </c>
       <c r="P31" t="n">
-        <v>65.68738632761189</v>
+        <v>65.68738632761188</v>
       </c>
       <c r="Q31" t="n">
         <v>134.910282651292</v>
@@ -24925,7 +24925,7 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>359.9585549362873</v>
+        <v>254.2423228038407</v>
       </c>
       <c r="F32" t="n">
         <v>399.146417573369</v>
@@ -24943,7 +24943,7 @@
         <v>63.37259224262232</v>
       </c>
       <c r="K32" t="n">
-        <v>1.638969641873331</v>
+        <v>1.638969641873302</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.59962149502408</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>181.6826094785117</v>
+        <v>75.966377346065</v>
       </c>
       <c r="S32" t="n">
         <v>225.1186376643205</v>
@@ -24973,19 +24973,19 @@
         <v>217.3940782591752</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7532044839453</v>
+        <v>181.6225365514285</v>
       </c>
       <c r="V32" t="n">
-        <v>282.2903847059291</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>219.6754933468468</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>243.1006471710663</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>272.2127442627356</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>82.29652524858784</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C33" t="n">
         <v>203.8424276152394</v>
@@ -25013,13 +25013,13 @@
         <v>160.7766763481393</v>
       </c>
       <c r="H33" t="n">
-        <v>65.74311992530514</v>
+        <v>135.4489761991984</v>
       </c>
       <c r="I33" t="n">
-        <v>3.0302806821486</v>
+        <v>108.7465128145952</v>
       </c>
       <c r="J33" t="n">
-        <v>58.94502894890003</v>
+        <v>58.94502894890002</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,25 +25040,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>23.40900098836562</v>
       </c>
       <c r="R33" t="n">
         <v>139.5973657252208</v>
       </c>
       <c r="S33" t="n">
-        <v>203.5963641084886</v>
+        <v>110.4815068462296</v>
       </c>
       <c r="T33" t="n">
-        <v>229.1348189901331</v>
+        <v>123.4185868576864</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6338774975503</v>
+        <v>143.9176453651036</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W33" t="n">
-        <v>177.5330246304845</v>
+        <v>177.5330246304844</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
@@ -25098,25 +25098,25 @@
         <v>161.7277780533601</v>
       </c>
       <c r="J34" t="n">
-        <v>118.1562616108816</v>
+        <v>118.1562616108815</v>
       </c>
       <c r="K34" t="n">
         <v>64.25419589433906</v>
       </c>
       <c r="L34" t="n">
-        <v>31.31557735121642</v>
+        <v>31.3155773512164</v>
       </c>
       <c r="M34" t="n">
-        <v>26.33176703465443</v>
+        <v>26.3317670346544</v>
       </c>
       <c r="N34" t="n">
-        <v>14.73426740675721</v>
+        <v>14.7342674067572</v>
       </c>
       <c r="O34" t="n">
-        <v>42.48900223235088</v>
+        <v>42.48900223235087</v>
       </c>
       <c r="P34" t="n">
-        <v>65.68738632761189</v>
+        <v>65.68738632761188</v>
       </c>
       <c r="Q34" t="n">
         <v>134.910282651292</v>
@@ -25156,10 +25156,10 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
-        <v>333.5971194742085</v>
+        <v>258.5588579993436</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1317556432476</v>
+        <v>244.0934941683828</v>
       </c>
       <c r="E35" t="n">
         <v>359.9585549362873</v>
@@ -25168,19 +25168,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>346.6969469394636</v>
+        <v>421.7352084143284</v>
       </c>
       <c r="H35" t="n">
         <v>345.0987750524518</v>
       </c>
       <c r="I35" t="n">
-        <v>161.0764947394141</v>
+        <v>236.1147562142789</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4595810577747486</v>
+        <v>63.37259224262232</v>
       </c>
       <c r="K35" t="n">
-        <v>1.638969641873331</v>
+        <v>1.638969641873302</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>69.59962149502408</v>
+        <v>69.59962149502405</v>
       </c>
       <c r="R35" t="n">
         <v>181.6826094785117</v>
@@ -25210,10 +25210,10 @@
         <v>217.3940782591752</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7532044839453</v>
+        <v>173.7149430090804</v>
       </c>
       <c r="V35" t="n">
-        <v>313.3044420010231</v>
+        <v>250.3914308161754</v>
       </c>
       <c r="W35" t="n">
         <v>325.3917254792934</v>
@@ -25222,7 +25222,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>302.8907149203174</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="36">
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>112.9744959061696</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>172.0989423795122</v>
+        <v>97.06068090464734</v>
       </c>
       <c r="E36" t="n">
-        <v>187.4605452976028</v>
+        <v>112.422283822738</v>
       </c>
       <c r="F36" t="n">
-        <v>173.9843481253239</v>
+        <v>98.94608665045905</v>
       </c>
       <c r="G36" t="n">
         <v>160.7766763481393</v>
@@ -25256,7 +25256,7 @@
         <v>108.7465128145952</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>58.94502894890002</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>23.40900098836563</v>
+        <v>23.40900098836562</v>
       </c>
       <c r="R36" t="n">
         <v>139.5973657252208</v>
@@ -25292,16 +25292,16 @@
         <v>249.6338774975503</v>
       </c>
       <c r="V36" t="n">
-        <v>242.1512534220115</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W36" t="n">
-        <v>208.2109952880663</v>
+        <v>217.1555560558702</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>167.8580049387285</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25335,25 +25335,25 @@
         <v>161.7277780533601</v>
       </c>
       <c r="J37" t="n">
-        <v>118.1562616108816</v>
+        <v>118.1562616108815</v>
       </c>
       <c r="K37" t="n">
         <v>64.25419589433906</v>
       </c>
       <c r="L37" t="n">
-        <v>31.31557735121642</v>
+        <v>31.3155773512164</v>
       </c>
       <c r="M37" t="n">
-        <v>26.33176703465443</v>
+        <v>26.3317670346544</v>
       </c>
       <c r="N37" t="n">
-        <v>14.73426740675721</v>
+        <v>14.7342674067572</v>
       </c>
       <c r="O37" t="n">
-        <v>42.48900223235088</v>
+        <v>42.48900223235087</v>
       </c>
       <c r="P37" t="n">
-        <v>65.68738632761189</v>
+        <v>65.68738632761188</v>
       </c>
       <c r="Q37" t="n">
         <v>134.910282651292</v>
@@ -25393,7 +25393,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C38" t="n">
-        <v>270.6841082893608</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
         <v>319.1317556432476</v>
@@ -25402,10 +25402,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>324.1081560985042</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7352084143284</v>
+        <v>346.6969469394636</v>
       </c>
       <c r="H38" t="n">
         <v>345.0987750524518</v>
@@ -25417,7 +25417,7 @@
         <v>63.37259224262232</v>
       </c>
       <c r="K38" t="n">
-        <v>1.638969641873331</v>
+        <v>1.638969641873302</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>69.59962149502408</v>
+        <v>69.59962149502405</v>
       </c>
       <c r="R38" t="n">
         <v>181.6826094785117</v>
@@ -25447,19 +25447,19 @@
         <v>217.3940782591752</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7532044839453</v>
+        <v>185.8401932990976</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>250.3534640044285</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>273.7786178286481</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
-        <v>302.8907149203173</v>
+        <v>302.8907149203172</v>
       </c>
     </row>
     <row r="39">
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.0127573810344</v>
+        <v>121.9190566739735</v>
       </c>
       <c r="C39" t="n">
-        <v>128.8041661403745</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
-        <v>172.0989423795122</v>
+        <v>97.06068090464734</v>
       </c>
       <c r="E39" t="n">
         <v>112.422283822738</v>
       </c>
       <c r="F39" t="n">
-        <v>131.2996484066286</v>
+        <v>98.94608665045905</v>
       </c>
       <c r="G39" t="n">
         <v>160.7766763481393</v>
@@ -25493,7 +25493,7 @@
         <v>108.7465128145952</v>
       </c>
       <c r="J39" t="n">
-        <v>58.94502894890003</v>
+        <v>58.94502894890002</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>23.40900098836562</v>
       </c>
       <c r="R39" t="n">
         <v>139.5973657252208</v>
@@ -25532,7 +25532,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
-        <v>208.2109952880663</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
@@ -25572,25 +25572,25 @@
         <v>161.7277780533601</v>
       </c>
       <c r="J40" t="n">
-        <v>118.1562616108816</v>
+        <v>118.1562616108815</v>
       </c>
       <c r="K40" t="n">
         <v>64.25419589433906</v>
       </c>
       <c r="L40" t="n">
-        <v>31.31557735121642</v>
+        <v>31.3155773512164</v>
       </c>
       <c r="M40" t="n">
-        <v>26.33176703465443</v>
+        <v>26.3317670346544</v>
       </c>
       <c r="N40" t="n">
-        <v>14.73426740675721</v>
+        <v>14.7342674067572</v>
       </c>
       <c r="O40" t="n">
-        <v>42.48900223235088</v>
+        <v>42.48900223235087</v>
       </c>
       <c r="P40" t="n">
-        <v>65.68738632761189</v>
+        <v>65.68738632761188</v>
       </c>
       <c r="Q40" t="n">
         <v>134.910282651292</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>292.8999794897829</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
         <v>333.5971194742085</v>
@@ -25639,7 +25639,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>327.4900694660888</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
         <v>421.7352084143284</v>
@@ -25654,7 +25654,7 @@
         <v>63.37259224262232</v>
       </c>
       <c r="K41" t="n">
-        <v>1.638969641873331</v>
+        <v>1.638969641873302</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>6.48471008213167</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>181.6826094785117</v>
+        <v>110.0262613712313</v>
       </c>
       <c r="S41" t="n">
         <v>225.1186376643205</v>
@@ -25684,10 +25684,10 @@
         <v>217.3940782591752</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7532044839453</v>
+        <v>177.0968563766649</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>248.1328039758743</v>
       </c>
       <c r="W41" t="n">
         <v>325.3917254792934</v>
@@ -25696,7 +25696,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>306.2726282879019</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>116.3564092737542</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>132.1860795079592</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
         <v>172.0989423795122</v>
@@ -25718,19 +25718,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
-        <v>173.9843481253239</v>
+        <v>102.3280000180436</v>
       </c>
       <c r="G42" t="n">
         <v>160.7766763481393</v>
       </c>
       <c r="H42" t="n">
-        <v>63.7926280919182</v>
+        <v>135.4489761991984</v>
       </c>
       <c r="I42" t="n">
         <v>108.7465128145952</v>
       </c>
       <c r="J42" t="n">
-        <v>58.94502894890003</v>
+        <v>58.94502894890002</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,16 +25751,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>23.40900098836563</v>
+        <v>23.40900098836562</v>
       </c>
       <c r="R42" t="n">
-        <v>139.5973657252208</v>
+        <v>76.48245431232831</v>
       </c>
       <c r="S42" t="n">
-        <v>203.5963641084886</v>
+        <v>131.9400160012082</v>
       </c>
       <c r="T42" t="n">
-        <v>229.1348189901331</v>
+        <v>157.4784708828528</v>
       </c>
       <c r="U42" t="n">
         <v>249.6338774975503</v>
@@ -25775,7 +25775,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>179.7813550007009</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25809,25 +25809,25 @@
         <v>161.7277780533601</v>
       </c>
       <c r="J43" t="n">
-        <v>118.1562616108816</v>
+        <v>118.1562616108815</v>
       </c>
       <c r="K43" t="n">
         <v>64.25419589433906</v>
       </c>
       <c r="L43" t="n">
-        <v>31.31557735121642</v>
+        <v>31.3155773512164</v>
       </c>
       <c r="M43" t="n">
-        <v>26.33176703465443</v>
+        <v>26.3317670346544</v>
       </c>
       <c r="N43" t="n">
-        <v>14.73426740675721</v>
+        <v>14.7342674067572</v>
       </c>
       <c r="O43" t="n">
-        <v>42.48900223235088</v>
+        <v>42.48900223235087</v>
       </c>
       <c r="P43" t="n">
-        <v>65.68738632761189</v>
+        <v>65.68738632761188</v>
       </c>
       <c r="Q43" t="n">
         <v>134.910282651292</v>
@@ -25873,13 +25873,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
-        <v>359.9585549362873</v>
+        <v>294.7869169111385</v>
       </c>
       <c r="F44" t="n">
-        <v>327.4900694660888</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>350.0788603070482</v>
+        <v>350.0788603070481</v>
       </c>
       <c r="H44" t="n">
         <v>345.0987750524518</v>
@@ -25891,7 +25891,7 @@
         <v>63.37259224262232</v>
       </c>
       <c r="K44" t="n">
-        <v>1.638969641873331</v>
+        <v>1.638969641873302</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>69.59962149502408</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>110.0262613712315</v>
+        <v>181.6826094785117</v>
       </c>
       <c r="S44" t="n">
         <v>225.1186376643205</v>
@@ -25921,7 +25921,7 @@
         <v>217.3940782591752</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7532044839453</v>
+        <v>177.0968563766649</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25933,7 +25933,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.8140649822897</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="45">
@@ -25946,19 +25946,19 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C45" t="n">
-        <v>199.672545151247</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D45" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E45" t="n">
-        <v>115.8041971903226</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F45" t="n">
-        <v>102.3280000180437</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>89.12032824085907</v>
+        <v>97.66176493524677</v>
       </c>
       <c r="H45" t="n">
         <v>135.4489761991984</v>
@@ -25967,7 +25967,7 @@
         <v>108.7465128145952</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>58.94502894890002</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>23.40900098836563</v>
+        <v>23.40900098836562</v>
       </c>
       <c r="R45" t="n">
         <v>139.5973657252208</v>
@@ -26000,13 +26000,13 @@
         <v>229.1348189901331</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6338774975503</v>
+        <v>177.97752939027</v>
       </c>
       <c r="V45" t="n">
-        <v>249.2999251801724</v>
+        <v>177.643577072892</v>
       </c>
       <c r="W45" t="n">
-        <v>283.2492567629311</v>
+        <v>211.5929086556508</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26046,25 +26046,25 @@
         <v>161.7277780533601</v>
       </c>
       <c r="J46" t="n">
-        <v>118.1562616108816</v>
+        <v>118.1562616108815</v>
       </c>
       <c r="K46" t="n">
         <v>64.25419589433906</v>
       </c>
       <c r="L46" t="n">
-        <v>31.31557735121642</v>
+        <v>31.3155773512164</v>
       </c>
       <c r="M46" t="n">
-        <v>26.33176703465443</v>
+        <v>26.3317670346544</v>
       </c>
       <c r="N46" t="n">
-        <v>14.73426740675721</v>
+        <v>14.7342674067572</v>
       </c>
       <c r="O46" t="n">
-        <v>42.48900223235088</v>
+        <v>42.48900223235087</v>
       </c>
       <c r="P46" t="n">
-        <v>65.68738632761189</v>
+        <v>65.68738632761188</v>
       </c>
       <c r="Q46" t="n">
         <v>134.910282651292</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>437118.2957984909</v>
+        <v>437118.2957984907</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>438907.1456573134</v>
+        <v>438907.1456573132</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>438907.1456573135</v>
+        <v>438907.1456573134</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>451958.0618153329</v>
+        <v>451958.0618153328</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>451958.0618153328</v>
+        <v>451958.0618153329</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>451958.0618153328</v>
+        <v>451958.0618153329</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>438907.1456573134</v>
+        <v>438907.1456573133</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>437118.295798491</v>
+        <v>437118.2957984909</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>437118.295798491</v>
+        <v>437118.2957984909</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>132798.2883786404</v>
       </c>
       <c r="C2" t="n">
-        <v>141754.9928791208</v>
+        <v>141754.9928791209</v>
       </c>
       <c r="D2" t="n">
         <v>141754.9928791208</v>
       </c>
       <c r="E2" t="n">
+        <v>184341.3337105711</v>
+      </c>
+      <c r="F2" t="n">
         <v>184341.3337105713</v>
       </c>
-      <c r="F2" t="n">
-        <v>184341.3337105712</v>
-      </c>
       <c r="G2" t="n">
-        <v>185049.0388033109</v>
+        <v>185049.0388033108</v>
       </c>
       <c r="H2" t="n">
-        <v>185049.0388033109</v>
+        <v>185049.0388033108</v>
       </c>
       <c r="I2" t="n">
-        <v>190212.2445270309</v>
+        <v>190212.2445270311</v>
       </c>
       <c r="J2" t="n">
-        <v>190212.2445270309</v>
+        <v>190212.244527031</v>
       </c>
       <c r="K2" t="n">
         <v>190212.244527031</v>
       </c>
       <c r="L2" t="n">
-        <v>190212.2445270309</v>
+        <v>190212.244527031</v>
       </c>
       <c r="M2" t="n">
+        <v>185049.0388033108</v>
+      </c>
+      <c r="N2" t="n">
         <v>185049.0388033107</v>
       </c>
-      <c r="N2" t="n">
-        <v>185049.0388033108</v>
-      </c>
       <c r="O2" t="n">
-        <v>184341.3337105711</v>
+        <v>184341.3337105713</v>
       </c>
       <c r="P2" t="n">
-        <v>184341.3337105712</v>
+        <v>184341.3337105713</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143687.1100203943</v>
+        <v>143687.1100203941</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.522183634340765e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>926.931725354414</v>
+        <v>926.9317253543984</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8157.916635234731</v>
+        <v>8157.916635234813</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>10211.97557397468</v>
+        <v>10211.97557397462</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8465.294475544923</v>
+        <v>8465.294475544924</v>
       </c>
       <c r="C4" t="n">
         <v>8108.232771535897</v>
@@ -26426,25 +26426,25 @@
         <v>8108.232771535897</v>
       </c>
       <c r="E4" t="n">
-        <v>7040.439764611014</v>
+        <v>7040.439764611007</v>
       </c>
       <c r="F4" t="n">
-        <v>7040.439764611013</v>
+        <v>7040.439764611015</v>
       </c>
       <c r="G4" t="n">
-        <v>7180.040810010796</v>
+        <v>7180.040810010785</v>
       </c>
       <c r="H4" t="n">
-        <v>7180.040810010796</v>
+        <v>7180.040810010785</v>
       </c>
       <c r="I4" t="n">
-        <v>8198.528488056476</v>
+        <v>8198.528488056478</v>
       </c>
       <c r="J4" t="n">
         <v>8198.528488056476</v>
       </c>
       <c r="K4" t="n">
-        <v>8198.528488056476</v>
+        <v>8198.528488056478</v>
       </c>
       <c r="L4" t="n">
         <v>8198.528488056476</v>
@@ -26456,10 +26456,10 @@
         <v>7180.040810010785</v>
       </c>
       <c r="O4" t="n">
-        <v>7040.439764611011</v>
+        <v>7040.439764611014</v>
       </c>
       <c r="P4" t="n">
-        <v>7040.439764611012</v>
+        <v>7040.439764611014</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>40368.52827033812</v>
       </c>
       <c r="E5" t="n">
-        <v>14415.97857795275</v>
+        <v>14415.97857795273</v>
       </c>
       <c r="F5" t="n">
-        <v>14415.97857795275</v>
+        <v>14415.97857795276</v>
       </c>
       <c r="G5" t="n">
-        <v>14621.59891070191</v>
+        <v>14621.59891070189</v>
       </c>
       <c r="H5" t="n">
-        <v>14621.59891070191</v>
+        <v>14621.59891070189</v>
       </c>
       <c r="I5" t="n">
-        <v>16486.81952668286</v>
+        <v>16486.81952668287</v>
       </c>
       <c r="J5" t="n">
-        <v>16486.81952668286</v>
+        <v>16486.81952668287</v>
       </c>
       <c r="K5" t="n">
-        <v>16486.81952668286</v>
+        <v>16486.81952668287</v>
       </c>
       <c r="L5" t="n">
-        <v>16486.81952668286</v>
+        <v>16486.81952668287</v>
       </c>
       <c r="M5" t="n">
         <v>14621.59891070189</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-180726.7641927904</v>
+        <v>-198223.1724991899</v>
       </c>
       <c r="C6" t="n">
-        <v>62530.16748214386</v>
+        <v>45460.26891386253</v>
       </c>
       <c r="D6" t="n">
-        <v>93278.23183724681</v>
+        <v>76208.33326896542</v>
       </c>
       <c r="E6" t="n">
-        <v>19197.80534761315</v>
+        <v>4155.827771305676</v>
       </c>
       <c r="F6" t="n">
-        <v>162884.9153680074</v>
+        <v>147842.9377916998</v>
       </c>
       <c r="G6" t="n">
-        <v>162320.4673572438</v>
+        <v>147312.1900234476</v>
       </c>
       <c r="H6" t="n">
-        <v>163247.3990825982</v>
+        <v>148239.1217488019</v>
       </c>
       <c r="I6" t="n">
-        <v>157368.9798770569</v>
+        <v>142606.5694824855</v>
       </c>
       <c r="J6" t="n">
-        <v>165526.8965122916</v>
+        <v>150764.4861177203</v>
       </c>
       <c r="K6" t="n">
-        <v>165526.8965122917</v>
+        <v>150764.4861177203</v>
       </c>
       <c r="L6" t="n">
-        <v>165526.8965122915</v>
+        <v>150764.4861177203</v>
       </c>
       <c r="M6" t="n">
-        <v>153035.4235086234</v>
+        <v>138027.1461748273</v>
       </c>
       <c r="N6" t="n">
-        <v>163247.3990825982</v>
+        <v>148239.1217488019</v>
       </c>
       <c r="O6" t="n">
-        <v>162884.9153680074</v>
+        <v>147842.9377917</v>
       </c>
       <c r="P6" t="n">
-        <v>162884.9153680074</v>
+        <v>147842.9377917</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>309.2168931347763</v>
       </c>
       <c r="E3" t="n">
-        <v>461.4345235334912</v>
+        <v>461.4345235334911</v>
       </c>
       <c r="F3" t="n">
         <v>461.4345235334912</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>71.65634810728008</v>
+      </c>
+      <c r="F4" t="n">
+        <v>71.65634810728037</v>
+      </c>
+      <c r="G4" t="n">
+        <v>75.03826147486487</v>
+      </c>
+      <c r="H4" t="n">
+        <v>75.03826147486487</v>
+      </c>
+      <c r="I4" t="n">
+        <v>105.7162321324467</v>
+      </c>
+      <c r="J4" t="n">
+        <v>105.7162321324467</v>
+      </c>
+      <c r="K4" t="n">
+        <v>105.7162321324467</v>
+      </c>
+      <c r="L4" t="n">
+        <v>105.7162321324467</v>
+      </c>
+      <c r="M4" t="n">
+        <v>75.03826147486487</v>
+      </c>
+      <c r="N4" t="n">
+        <v>75.03826147486487</v>
+      </c>
+      <c r="O4" t="n">
         <v>71.65634810728034</v>
       </c>
-      <c r="F4" t="n">
-        <v>71.65634810728032</v>
-      </c>
-      <c r="G4" t="n">
-        <v>75.0382614748651</v>
-      </c>
-      <c r="H4" t="n">
-        <v>75.0382614748651</v>
-      </c>
-      <c r="I4" t="n">
-        <v>105.7162321324466</v>
-      </c>
-      <c r="J4" t="n">
-        <v>105.7162321324466</v>
-      </c>
-      <c r="K4" t="n">
-        <v>105.7162321324466</v>
-      </c>
-      <c r="L4" t="n">
-        <v>105.7162321324466</v>
-      </c>
-      <c r="M4" t="n">
-        <v>75.03826147486481</v>
-      </c>
-      <c r="N4" t="n">
-        <v>75.03826147486484</v>
-      </c>
-      <c r="O4" t="n">
-        <v>71.65634810728022</v>
-      </c>
       <c r="P4" t="n">
-        <v>71.65634810728022</v>
+        <v>71.65634810728034</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>152.217630398715</v>
+        <v>152.2176303987148</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.078150109664906e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>71.65634810728039</v>
+        <v>71.65634810728017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.381913367584559</v>
+        <v>3.381913367584502</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>30.6779706575815</v>
+        <v>30.67797065758181</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>40.97837744969854</v>
+        <v>40.97837744969831</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>71.65634810728039</v>
+        <v>71.65634810728017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.381913367584559</v>
+        <v>3.381913367584502</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.855013159933632</v>
+        <v>1.855013159933631</v>
       </c>
       <c r="H11" t="n">
-        <v>18.99765352417031</v>
+        <v>18.9976535241703</v>
       </c>
       <c r="I11" t="n">
-        <v>71.5153948483414</v>
+        <v>71.51539484834139</v>
       </c>
       <c r="J11" t="n">
         <v>157.4419231829172</v>
       </c>
       <c r="K11" t="n">
-        <v>235.9646302429079</v>
+        <v>235.9646302429078</v>
       </c>
       <c r="L11" t="n">
-        <v>292.7349892362269</v>
+        <v>292.7349892362267</v>
       </c>
       <c r="M11" t="n">
-        <v>325.7240795191966</v>
+        <v>325.7240795191964</v>
       </c>
       <c r="N11" t="n">
-        <v>330.994635659858</v>
+        <v>330.9946356598579</v>
       </c>
       <c r="O11" t="n">
-        <v>312.548848550768</v>
+        <v>312.5488485507678</v>
       </c>
       <c r="P11" t="n">
-        <v>266.7532111649064</v>
+        <v>266.7532111649062</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.3205523747831</v>
+        <v>200.320552374783</v>
       </c>
       <c r="R11" t="n">
         <v>116.5249704076811</v>
       </c>
       <c r="S11" t="n">
-        <v>42.27111238198768</v>
+        <v>42.27111238198766</v>
       </c>
       <c r="T11" t="n">
-        <v>8.120320107609476</v>
+        <v>8.120320107609475</v>
       </c>
       <c r="U11" t="n">
         <v>0.1484010527946905</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9925195411852453</v>
+        <v>0.992519541185245</v>
       </c>
       <c r="H12" t="n">
-        <v>9.585649253025924</v>
+        <v>9.58564925302592</v>
       </c>
       <c r="I12" t="n">
-        <v>34.1722736767727</v>
+        <v>34.17227367677269</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77133086259374</v>
+        <v>93.77133086259371</v>
       </c>
       <c r="K12" t="n">
-        <v>160.2701401220052</v>
+        <v>160.2701401220051</v>
       </c>
       <c r="L12" t="n">
-        <v>215.5029819577876</v>
+        <v>215.5029819577875</v>
       </c>
       <c r="M12" t="n">
-        <v>251.4818153257527</v>
+        <v>251.4818153257526</v>
       </c>
       <c r="N12" t="n">
-        <v>258.1377906699292</v>
+        <v>258.1377906699291</v>
       </c>
       <c r="O12" t="n">
-        <v>236.1456471520877</v>
+        <v>236.1456471520876</v>
       </c>
       <c r="P12" t="n">
         <v>189.5277008075579</v>
@@ -31864,16 +31864,16 @@
         <v>126.6942488011201</v>
       </c>
       <c r="R12" t="n">
-        <v>61.62327467113306</v>
+        <v>61.62327467113304</v>
       </c>
       <c r="S12" t="n">
         <v>18.43561516192768</v>
       </c>
       <c r="T12" t="n">
-        <v>4.00055025591772</v>
+        <v>4.000550255917719</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06529733823587143</v>
+        <v>0.0652973382358714</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,28 +31910,28 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8320950424374431</v>
+        <v>0.8320950424374428</v>
       </c>
       <c r="H13" t="n">
-        <v>7.398081377307454</v>
+        <v>7.398081377307451</v>
       </c>
       <c r="I13" t="n">
-        <v>25.02336727620966</v>
+        <v>25.02336727620965</v>
       </c>
       <c r="J13" t="n">
-        <v>58.82911950032722</v>
+        <v>58.8291195003272</v>
       </c>
       <c r="K13" t="n">
-        <v>96.67431493045927</v>
+        <v>96.67431493045925</v>
       </c>
       <c r="L13" t="n">
         <v>123.7098393092904</v>
       </c>
       <c r="M13" t="n">
-        <v>130.4346801522621</v>
+        <v>130.434680152262</v>
       </c>
       <c r="N13" t="n">
-        <v>127.3332349940863</v>
+        <v>127.3332349940862</v>
       </c>
       <c r="O13" t="n">
         <v>117.6128519983397</v>
@@ -31940,19 +31940,19 @@
         <v>100.6381131326158</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.67661305355718</v>
+        <v>69.67661305355715</v>
       </c>
       <c r="R13" t="n">
-        <v>37.41401890814175</v>
+        <v>37.41401890814174</v>
       </c>
       <c r="S13" t="n">
         <v>14.50114723956889</v>
       </c>
       <c r="T13" t="n">
-        <v>3.55531518132362</v>
+        <v>3.555315181323619</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04538700231476968</v>
+        <v>0.04538700231476966</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.855013159933631</v>
+        <v>1.855013159933632</v>
       </c>
       <c r="H17" t="n">
         <v>18.99765352417031</v>
@@ -32241,19 +32241,19 @@
         <v>235.9646302429079</v>
       </c>
       <c r="L17" t="n">
-        <v>292.7349892362268</v>
+        <v>292.7349892362269</v>
       </c>
       <c r="M17" t="n">
-        <v>325.7240795191965</v>
+        <v>325.7240795191966</v>
       </c>
       <c r="N17" t="n">
         <v>330.994635659858</v>
       </c>
       <c r="O17" t="n">
-        <v>312.5488485507679</v>
+        <v>312.548848550768</v>
       </c>
       <c r="P17" t="n">
-        <v>266.7532111649063</v>
+        <v>266.7532111649064</v>
       </c>
       <c r="Q17" t="n">
         <v>200.3205523747831</v>
@@ -32262,7 +32262,7 @@
         <v>116.5249704076811</v>
       </c>
       <c r="S17" t="n">
-        <v>42.27111238198767</v>
+        <v>42.27111238198768</v>
       </c>
       <c r="T17" t="n">
         <v>8.120320107609476</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9925195411852452</v>
+        <v>0.9925195411852453</v>
       </c>
       <c r="H18" t="n">
-        <v>9.585649253025922</v>
+        <v>9.585649253025924</v>
       </c>
       <c r="I18" t="n">
         <v>34.1722736767727</v>
       </c>
       <c r="J18" t="n">
-        <v>93.77133086259373</v>
+        <v>93.77133086259374</v>
       </c>
       <c r="K18" t="n">
         <v>160.2701401220052</v>
@@ -32338,7 +32338,7 @@
         <v>126.6942488011201</v>
       </c>
       <c r="R18" t="n">
-        <v>61.62327467113305</v>
+        <v>61.62327467113306</v>
       </c>
       <c r="S18" t="n">
         <v>18.43561516192768</v>
@@ -32347,7 +32347,7 @@
         <v>4.00055025591772</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06529733823587142</v>
+        <v>0.06529733823587143</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.832095042437443</v>
+        <v>0.8320950424374431</v>
       </c>
       <c r="H19" t="n">
-        <v>7.398081377307453</v>
+        <v>7.398081377307454</v>
       </c>
       <c r="I19" t="n">
         <v>25.02336727620966</v>
@@ -32414,7 +32414,7 @@
         <v>100.6381131326158</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.67661305355716</v>
+        <v>69.67661305355718</v>
       </c>
       <c r="R19" t="n">
         <v>37.41401890814175</v>
@@ -32423,10 +32423,10 @@
         <v>14.50114723956889</v>
       </c>
       <c r="T19" t="n">
-        <v>3.555315181323619</v>
+        <v>3.55531518132362</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04538700231476967</v>
+        <v>0.04538700231476968</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.855013159933631</v>
+        <v>1.855013159933632</v>
       </c>
       <c r="H20" t="n">
         <v>18.99765352417031</v>
@@ -32478,19 +32478,19 @@
         <v>235.9646302429079</v>
       </c>
       <c r="L20" t="n">
-        <v>292.7349892362268</v>
+        <v>292.7349892362269</v>
       </c>
       <c r="M20" t="n">
-        <v>325.7240795191965</v>
+        <v>325.7240795191966</v>
       </c>
       <c r="N20" t="n">
         <v>330.994635659858</v>
       </c>
       <c r="O20" t="n">
-        <v>312.5488485507679</v>
+        <v>312.548848550768</v>
       </c>
       <c r="P20" t="n">
-        <v>266.7532111649063</v>
+        <v>266.7532111649064</v>
       </c>
       <c r="Q20" t="n">
         <v>200.3205523747831</v>
@@ -32499,7 +32499,7 @@
         <v>116.5249704076811</v>
       </c>
       <c r="S20" t="n">
-        <v>42.27111238198767</v>
+        <v>42.27111238198768</v>
       </c>
       <c r="T20" t="n">
         <v>8.120320107609476</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9925195411852452</v>
+        <v>0.9925195411852453</v>
       </c>
       <c r="H21" t="n">
-        <v>9.585649253025922</v>
+        <v>9.585649253025924</v>
       </c>
       <c r="I21" t="n">
         <v>34.1722736767727</v>
       </c>
       <c r="J21" t="n">
-        <v>93.77133086259373</v>
+        <v>93.77133086259374</v>
       </c>
       <c r="K21" t="n">
         <v>160.2701401220052</v>
@@ -32575,7 +32575,7 @@
         <v>126.6942488011201</v>
       </c>
       <c r="R21" t="n">
-        <v>61.62327467113305</v>
+        <v>61.62327467113306</v>
       </c>
       <c r="S21" t="n">
         <v>18.43561516192768</v>
@@ -32584,7 +32584,7 @@
         <v>4.00055025591772</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06529733823587142</v>
+        <v>0.06529733823587143</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.832095042437443</v>
+        <v>0.8320950424374431</v>
       </c>
       <c r="H22" t="n">
-        <v>7.398081377307453</v>
+        <v>7.398081377307454</v>
       </c>
       <c r="I22" t="n">
         <v>25.02336727620966</v>
@@ -32651,7 +32651,7 @@
         <v>100.6381131326158</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.67661305355716</v>
+        <v>69.67661305355718</v>
       </c>
       <c r="R22" t="n">
         <v>37.41401890814175</v>
@@ -32660,10 +32660,10 @@
         <v>14.50114723956889</v>
       </c>
       <c r="T22" t="n">
-        <v>3.555315181323619</v>
+        <v>3.55531518132362</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04538700231476967</v>
+        <v>0.04538700231476968</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.855013159933631</v>
+        <v>1.855013159933632</v>
       </c>
       <c r="H23" t="n">
         <v>18.99765352417031</v>
@@ -32715,19 +32715,19 @@
         <v>235.9646302429079</v>
       </c>
       <c r="L23" t="n">
-        <v>292.7349892362268</v>
+        <v>292.7349892362269</v>
       </c>
       <c r="M23" t="n">
-        <v>325.7240795191965</v>
+        <v>325.7240795191966</v>
       </c>
       <c r="N23" t="n">
         <v>330.994635659858</v>
       </c>
       <c r="O23" t="n">
-        <v>312.5488485507679</v>
+        <v>312.548848550768</v>
       </c>
       <c r="P23" t="n">
-        <v>266.7532111649063</v>
+        <v>266.7532111649064</v>
       </c>
       <c r="Q23" t="n">
         <v>200.3205523747831</v>
@@ -32736,7 +32736,7 @@
         <v>116.5249704076811</v>
       </c>
       <c r="S23" t="n">
-        <v>42.27111238198767</v>
+        <v>42.27111238198768</v>
       </c>
       <c r="T23" t="n">
         <v>8.120320107609476</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9925195411852452</v>
+        <v>0.9925195411852453</v>
       </c>
       <c r="H24" t="n">
-        <v>9.585649253025922</v>
+        <v>9.585649253025924</v>
       </c>
       <c r="I24" t="n">
         <v>34.1722736767727</v>
       </c>
       <c r="J24" t="n">
-        <v>93.77133086259373</v>
+        <v>93.77133086259374</v>
       </c>
       <c r="K24" t="n">
         <v>160.2701401220052</v>
@@ -32812,7 +32812,7 @@
         <v>126.6942488011201</v>
       </c>
       <c r="R24" t="n">
-        <v>61.62327467113305</v>
+        <v>61.62327467113306</v>
       </c>
       <c r="S24" t="n">
         <v>18.43561516192768</v>
@@ -32821,7 +32821,7 @@
         <v>4.00055025591772</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06529733823587142</v>
+        <v>0.06529733823587143</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.832095042437443</v>
+        <v>0.8320950424374431</v>
       </c>
       <c r="H25" t="n">
-        <v>7.398081377307453</v>
+        <v>7.398081377307454</v>
       </c>
       <c r="I25" t="n">
         <v>25.02336727620966</v>
@@ -32888,7 +32888,7 @@
         <v>100.6381131326158</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.67661305355716</v>
+        <v>69.67661305355718</v>
       </c>
       <c r="R25" t="n">
         <v>37.41401890814175</v>
@@ -32897,10 +32897,10 @@
         <v>14.50114723956889</v>
       </c>
       <c r="T25" t="n">
-        <v>3.555315181323619</v>
+        <v>3.55531518132362</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04538700231476967</v>
+        <v>0.04538700231476968</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.855013159933631</v>
+        <v>1.855013159933632</v>
       </c>
       <c r="H26" t="n">
         <v>18.99765352417031</v>
@@ -32952,19 +32952,19 @@
         <v>235.9646302429079</v>
       </c>
       <c r="L26" t="n">
-        <v>292.7349892362268</v>
+        <v>292.7349892362269</v>
       </c>
       <c r="M26" t="n">
-        <v>325.7240795191965</v>
+        <v>325.7240795191966</v>
       </c>
       <c r="N26" t="n">
         <v>330.994635659858</v>
       </c>
       <c r="O26" t="n">
-        <v>312.5488485507679</v>
+        <v>312.548848550768</v>
       </c>
       <c r="P26" t="n">
-        <v>266.7532111649063</v>
+        <v>266.7532111649064</v>
       </c>
       <c r="Q26" t="n">
         <v>200.3205523747831</v>
@@ -32973,7 +32973,7 @@
         <v>116.5249704076811</v>
       </c>
       <c r="S26" t="n">
-        <v>42.27111238198767</v>
+        <v>42.27111238198768</v>
       </c>
       <c r="T26" t="n">
         <v>8.120320107609476</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9925195411852452</v>
+        <v>0.9925195411852453</v>
       </c>
       <c r="H27" t="n">
-        <v>9.585649253025922</v>
+        <v>9.585649253025924</v>
       </c>
       <c r="I27" t="n">
         <v>34.1722736767727</v>
       </c>
       <c r="J27" t="n">
-        <v>93.77133086259373</v>
+        <v>93.77133086259374</v>
       </c>
       <c r="K27" t="n">
         <v>160.2701401220052</v>
@@ -33049,7 +33049,7 @@
         <v>126.6942488011201</v>
       </c>
       <c r="R27" t="n">
-        <v>61.62327467113305</v>
+        <v>61.62327467113306</v>
       </c>
       <c r="S27" t="n">
         <v>18.43561516192768</v>
@@ -33058,7 +33058,7 @@
         <v>4.00055025591772</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06529733823587142</v>
+        <v>0.06529733823587143</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.832095042437443</v>
+        <v>0.8320950424374431</v>
       </c>
       <c r="H28" t="n">
-        <v>7.398081377307453</v>
+        <v>7.398081377307454</v>
       </c>
       <c r="I28" t="n">
         <v>25.02336727620966</v>
@@ -33125,7 +33125,7 @@
         <v>100.6381131326158</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.67661305355716</v>
+        <v>69.67661305355718</v>
       </c>
       <c r="R28" t="n">
         <v>37.41401890814175</v>
@@ -33134,10 +33134,10 @@
         <v>14.50114723956889</v>
       </c>
       <c r="T28" t="n">
-        <v>3.555315181323619</v>
+        <v>3.55531518132362</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04538700231476967</v>
+        <v>0.04538700231476968</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.855013159933631</v>
+        <v>1.855013159933632</v>
       </c>
       <c r="H29" t="n">
         <v>18.99765352417031</v>
@@ -33189,19 +33189,19 @@
         <v>235.9646302429079</v>
       </c>
       <c r="L29" t="n">
-        <v>292.7349892362268</v>
+        <v>292.7349892362269</v>
       </c>
       <c r="M29" t="n">
-        <v>325.7240795191965</v>
+        <v>325.7240795191966</v>
       </c>
       <c r="N29" t="n">
         <v>330.994635659858</v>
       </c>
       <c r="O29" t="n">
-        <v>312.5488485507679</v>
+        <v>312.548848550768</v>
       </c>
       <c r="P29" t="n">
-        <v>266.7532111649063</v>
+        <v>266.7532111649064</v>
       </c>
       <c r="Q29" t="n">
         <v>200.3205523747831</v>
@@ -33210,7 +33210,7 @@
         <v>116.5249704076811</v>
       </c>
       <c r="S29" t="n">
-        <v>42.27111238198767</v>
+        <v>42.27111238198768</v>
       </c>
       <c r="T29" t="n">
         <v>8.120320107609476</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9925195411852452</v>
+        <v>0.9925195411852453</v>
       </c>
       <c r="H30" t="n">
-        <v>9.585649253025922</v>
+        <v>9.585649253025924</v>
       </c>
       <c r="I30" t="n">
         <v>34.1722736767727</v>
       </c>
       <c r="J30" t="n">
-        <v>93.77133086259373</v>
+        <v>93.77133086259374</v>
       </c>
       <c r="K30" t="n">
         <v>160.2701401220052</v>
@@ -33286,7 +33286,7 @@
         <v>126.6942488011201</v>
       </c>
       <c r="R30" t="n">
-        <v>61.62327467113305</v>
+        <v>61.62327467113306</v>
       </c>
       <c r="S30" t="n">
         <v>18.43561516192768</v>
@@ -33295,7 +33295,7 @@
         <v>4.00055025591772</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06529733823587142</v>
+        <v>0.06529733823587143</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.832095042437443</v>
+        <v>0.8320950424374431</v>
       </c>
       <c r="H31" t="n">
-        <v>7.398081377307453</v>
+        <v>7.398081377307454</v>
       </c>
       <c r="I31" t="n">
         <v>25.02336727620966</v>
@@ -33362,7 +33362,7 @@
         <v>100.6381131326158</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.67661305355716</v>
+        <v>69.67661305355718</v>
       </c>
       <c r="R31" t="n">
         <v>37.41401890814175</v>
@@ -33371,10 +33371,10 @@
         <v>14.50114723956889</v>
       </c>
       <c r="T31" t="n">
-        <v>3.555315181323619</v>
+        <v>3.55531518132362</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04538700231476967</v>
+        <v>0.04538700231476968</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.855013159933631</v>
+        <v>1.855013159933632</v>
       </c>
       <c r="H32" t="n">
         <v>18.99765352417031</v>
@@ -33426,19 +33426,19 @@
         <v>235.9646302429079</v>
       </c>
       <c r="L32" t="n">
-        <v>292.7349892362268</v>
+        <v>292.7349892362269</v>
       </c>
       <c r="M32" t="n">
-        <v>325.7240795191965</v>
+        <v>325.7240795191966</v>
       </c>
       <c r="N32" t="n">
         <v>330.994635659858</v>
       </c>
       <c r="O32" t="n">
-        <v>312.5488485507679</v>
+        <v>312.548848550768</v>
       </c>
       <c r="P32" t="n">
-        <v>266.7532111649063</v>
+        <v>266.7532111649064</v>
       </c>
       <c r="Q32" t="n">
         <v>200.3205523747831</v>
@@ -33447,7 +33447,7 @@
         <v>116.5249704076811</v>
       </c>
       <c r="S32" t="n">
-        <v>42.27111238198767</v>
+        <v>42.27111238198768</v>
       </c>
       <c r="T32" t="n">
         <v>8.120320107609476</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9925195411852452</v>
+        <v>0.9925195411852453</v>
       </c>
       <c r="H33" t="n">
-        <v>9.585649253025922</v>
+        <v>9.585649253025924</v>
       </c>
       <c r="I33" t="n">
         <v>34.1722736767727</v>
       </c>
       <c r="J33" t="n">
-        <v>93.77133086259373</v>
+        <v>93.77133086259374</v>
       </c>
       <c r="K33" t="n">
         <v>160.2701401220052</v>
@@ -33523,7 +33523,7 @@
         <v>126.6942488011201</v>
       </c>
       <c r="R33" t="n">
-        <v>61.62327467113305</v>
+        <v>61.62327467113306</v>
       </c>
       <c r="S33" t="n">
         <v>18.43561516192768</v>
@@ -33532,7 +33532,7 @@
         <v>4.00055025591772</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06529733823587142</v>
+        <v>0.06529733823587143</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.832095042437443</v>
+        <v>0.8320950424374431</v>
       </c>
       <c r="H34" t="n">
-        <v>7.398081377307453</v>
+        <v>7.398081377307454</v>
       </c>
       <c r="I34" t="n">
         <v>25.02336727620966</v>
@@ -33599,7 +33599,7 @@
         <v>100.6381131326158</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.67661305355716</v>
+        <v>69.67661305355718</v>
       </c>
       <c r="R34" t="n">
         <v>37.41401890814175</v>
@@ -33608,10 +33608,10 @@
         <v>14.50114723956889</v>
       </c>
       <c r="T34" t="n">
-        <v>3.555315181323619</v>
+        <v>3.55531518132362</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04538700231476967</v>
+        <v>0.04538700231476968</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.855013159933631</v>
+        <v>1.855013159933632</v>
       </c>
       <c r="H35" t="n">
         <v>18.99765352417031</v>
@@ -33663,19 +33663,19 @@
         <v>235.9646302429079</v>
       </c>
       <c r="L35" t="n">
-        <v>292.7349892362268</v>
+        <v>292.7349892362269</v>
       </c>
       <c r="M35" t="n">
-        <v>325.7240795191965</v>
+        <v>325.7240795191966</v>
       </c>
       <c r="N35" t="n">
         <v>330.994635659858</v>
       </c>
       <c r="O35" t="n">
-        <v>312.5488485507679</v>
+        <v>312.548848550768</v>
       </c>
       <c r="P35" t="n">
-        <v>266.7532111649063</v>
+        <v>266.7532111649064</v>
       </c>
       <c r="Q35" t="n">
         <v>200.3205523747831</v>
@@ -33684,7 +33684,7 @@
         <v>116.5249704076811</v>
       </c>
       <c r="S35" t="n">
-        <v>42.27111238198767</v>
+        <v>42.27111238198768</v>
       </c>
       <c r="T35" t="n">
         <v>8.120320107609476</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9925195411852452</v>
+        <v>0.9925195411852453</v>
       </c>
       <c r="H36" t="n">
-        <v>9.585649253025922</v>
+        <v>9.585649253025924</v>
       </c>
       <c r="I36" t="n">
         <v>34.1722736767727</v>
       </c>
       <c r="J36" t="n">
-        <v>93.77133086259373</v>
+        <v>93.77133086259374</v>
       </c>
       <c r="K36" t="n">
         <v>160.2701401220052</v>
@@ -33760,7 +33760,7 @@
         <v>126.6942488011201</v>
       </c>
       <c r="R36" t="n">
-        <v>61.62327467113305</v>
+        <v>61.62327467113306</v>
       </c>
       <c r="S36" t="n">
         <v>18.43561516192768</v>
@@ -33769,7 +33769,7 @@
         <v>4.00055025591772</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06529733823587142</v>
+        <v>0.06529733823587143</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.832095042437443</v>
+        <v>0.8320950424374431</v>
       </c>
       <c r="H37" t="n">
-        <v>7.398081377307453</v>
+        <v>7.398081377307454</v>
       </c>
       <c r="I37" t="n">
         <v>25.02336727620966</v>
@@ -33836,7 +33836,7 @@
         <v>100.6381131326158</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.67661305355716</v>
+        <v>69.67661305355718</v>
       </c>
       <c r="R37" t="n">
         <v>37.41401890814175</v>
@@ -33845,10 +33845,10 @@
         <v>14.50114723956889</v>
       </c>
       <c r="T37" t="n">
-        <v>3.555315181323619</v>
+        <v>3.55531518132362</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04538700231476967</v>
+        <v>0.04538700231476968</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.855013159933631</v>
+        <v>1.855013159933632</v>
       </c>
       <c r="H38" t="n">
         <v>18.99765352417031</v>
@@ -33900,19 +33900,19 @@
         <v>235.9646302429079</v>
       </c>
       <c r="L38" t="n">
-        <v>292.7349892362268</v>
+        <v>292.7349892362269</v>
       </c>
       <c r="M38" t="n">
-        <v>325.7240795191965</v>
+        <v>325.7240795191966</v>
       </c>
       <c r="N38" t="n">
         <v>330.994635659858</v>
       </c>
       <c r="O38" t="n">
-        <v>312.5488485507679</v>
+        <v>312.548848550768</v>
       </c>
       <c r="P38" t="n">
-        <v>266.7532111649063</v>
+        <v>266.7532111649064</v>
       </c>
       <c r="Q38" t="n">
         <v>200.3205523747831</v>
@@ -33921,7 +33921,7 @@
         <v>116.5249704076811</v>
       </c>
       <c r="S38" t="n">
-        <v>42.27111238198767</v>
+        <v>42.27111238198768</v>
       </c>
       <c r="T38" t="n">
         <v>8.120320107609476</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9925195411852452</v>
+        <v>0.9925195411852453</v>
       </c>
       <c r="H39" t="n">
-        <v>9.585649253025922</v>
+        <v>9.585649253025924</v>
       </c>
       <c r="I39" t="n">
         <v>34.1722736767727</v>
       </c>
       <c r="J39" t="n">
-        <v>93.77133086259373</v>
+        <v>93.77133086259374</v>
       </c>
       <c r="K39" t="n">
         <v>160.2701401220052</v>
@@ -33997,7 +33997,7 @@
         <v>126.6942488011201</v>
       </c>
       <c r="R39" t="n">
-        <v>61.62327467113305</v>
+        <v>61.62327467113306</v>
       </c>
       <c r="S39" t="n">
         <v>18.43561516192768</v>
@@ -34006,7 +34006,7 @@
         <v>4.00055025591772</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06529733823587142</v>
+        <v>0.06529733823587143</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.832095042437443</v>
+        <v>0.8320950424374431</v>
       </c>
       <c r="H40" t="n">
-        <v>7.398081377307453</v>
+        <v>7.398081377307454</v>
       </c>
       <c r="I40" t="n">
         <v>25.02336727620966</v>
@@ -34073,7 +34073,7 @@
         <v>100.6381131326158</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.67661305355716</v>
+        <v>69.67661305355718</v>
       </c>
       <c r="R40" t="n">
         <v>37.41401890814175</v>
@@ -34082,10 +34082,10 @@
         <v>14.50114723956889</v>
       </c>
       <c r="T40" t="n">
-        <v>3.555315181323619</v>
+        <v>3.55531518132362</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04538700231476967</v>
+        <v>0.04538700231476968</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.855013159933631</v>
+        <v>1.855013159933632</v>
       </c>
       <c r="H41" t="n">
         <v>18.99765352417031</v>
@@ -34137,19 +34137,19 @@
         <v>235.9646302429079</v>
       </c>
       <c r="L41" t="n">
-        <v>292.7349892362268</v>
+        <v>292.7349892362269</v>
       </c>
       <c r="M41" t="n">
-        <v>325.7240795191965</v>
+        <v>325.7240795191966</v>
       </c>
       <c r="N41" t="n">
         <v>330.994635659858</v>
       </c>
       <c r="O41" t="n">
-        <v>312.5488485507679</v>
+        <v>312.548848550768</v>
       </c>
       <c r="P41" t="n">
-        <v>266.7532111649063</v>
+        <v>266.7532111649064</v>
       </c>
       <c r="Q41" t="n">
         <v>200.3205523747831</v>
@@ -34158,7 +34158,7 @@
         <v>116.5249704076811</v>
       </c>
       <c r="S41" t="n">
-        <v>42.27111238198767</v>
+        <v>42.27111238198768</v>
       </c>
       <c r="T41" t="n">
         <v>8.120320107609476</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9925195411852452</v>
+        <v>0.9925195411852453</v>
       </c>
       <c r="H42" t="n">
-        <v>9.585649253025922</v>
+        <v>9.585649253025924</v>
       </c>
       <c r="I42" t="n">
         <v>34.1722736767727</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77133086259373</v>
+        <v>93.77133086259374</v>
       </c>
       <c r="K42" t="n">
         <v>160.2701401220052</v>
@@ -34234,7 +34234,7 @@
         <v>126.6942488011201</v>
       </c>
       <c r="R42" t="n">
-        <v>61.62327467113305</v>
+        <v>61.62327467113306</v>
       </c>
       <c r="S42" t="n">
         <v>18.43561516192768</v>
@@ -34243,7 +34243,7 @@
         <v>4.00055025591772</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06529733823587142</v>
+        <v>0.06529733823587143</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.832095042437443</v>
+        <v>0.8320950424374431</v>
       </c>
       <c r="H43" t="n">
-        <v>7.398081377307453</v>
+        <v>7.398081377307454</v>
       </c>
       <c r="I43" t="n">
         <v>25.02336727620966</v>
@@ -34310,7 +34310,7 @@
         <v>100.6381131326158</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.67661305355716</v>
+        <v>69.67661305355718</v>
       </c>
       <c r="R43" t="n">
         <v>37.41401890814175</v>
@@ -34319,10 +34319,10 @@
         <v>14.50114723956889</v>
       </c>
       <c r="T43" t="n">
-        <v>3.555315181323619</v>
+        <v>3.55531518132362</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04538700231476967</v>
+        <v>0.04538700231476968</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.855013159933631</v>
+        <v>1.855013159933632</v>
       </c>
       <c r="H44" t="n">
         <v>18.99765352417031</v>
@@ -34374,19 +34374,19 @@
         <v>235.9646302429079</v>
       </c>
       <c r="L44" t="n">
-        <v>292.7349892362268</v>
+        <v>292.7349892362269</v>
       </c>
       <c r="M44" t="n">
-        <v>325.7240795191965</v>
+        <v>325.7240795191966</v>
       </c>
       <c r="N44" t="n">
         <v>330.994635659858</v>
       </c>
       <c r="O44" t="n">
-        <v>312.5488485507679</v>
+        <v>312.548848550768</v>
       </c>
       <c r="P44" t="n">
-        <v>266.7532111649063</v>
+        <v>266.7532111649064</v>
       </c>
       <c r="Q44" t="n">
         <v>200.3205523747831</v>
@@ -34395,7 +34395,7 @@
         <v>116.5249704076811</v>
       </c>
       <c r="S44" t="n">
-        <v>42.27111238198767</v>
+        <v>42.27111238198768</v>
       </c>
       <c r="T44" t="n">
         <v>8.120320107609476</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9925195411852452</v>
+        <v>0.9925195411852453</v>
       </c>
       <c r="H45" t="n">
-        <v>9.585649253025922</v>
+        <v>9.585649253025924</v>
       </c>
       <c r="I45" t="n">
         <v>34.1722736767727</v>
       </c>
       <c r="J45" t="n">
-        <v>93.77133086259373</v>
+        <v>93.77133086259374</v>
       </c>
       <c r="K45" t="n">
         <v>160.2701401220052</v>
@@ -34471,7 +34471,7 @@
         <v>126.6942488011201</v>
       </c>
       <c r="R45" t="n">
-        <v>61.62327467113305</v>
+        <v>61.62327467113306</v>
       </c>
       <c r="S45" t="n">
         <v>18.43561516192768</v>
@@ -34480,7 +34480,7 @@
         <v>4.00055025591772</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06529733823587142</v>
+        <v>0.06529733823587143</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.832095042437443</v>
+        <v>0.8320950424374431</v>
       </c>
       <c r="H46" t="n">
-        <v>7.398081377307453</v>
+        <v>7.398081377307454</v>
       </c>
       <c r="I46" t="n">
         <v>25.02336727620966</v>
@@ -34547,7 +34547,7 @@
         <v>100.6381131326158</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.67661305355716</v>
+        <v>69.67661305355718</v>
       </c>
       <c r="R46" t="n">
         <v>37.41401890814175</v>
@@ -34556,10 +34556,10 @@
         <v>14.50114723956889</v>
       </c>
       <c r="T46" t="n">
-        <v>3.555315181323619</v>
+        <v>3.55531518132362</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04538700231476967</v>
+        <v>0.04538700231476968</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>56.5185231257376</v>
+        <v>56.51852312573749</v>
       </c>
       <c r="M11" t="n">
-        <v>71.65634810728034</v>
+        <v>71.65634810728008</v>
       </c>
       <c r="N11" t="n">
-        <v>71.65634810728034</v>
+        <v>71.65634810728008</v>
       </c>
       <c r="O11" t="n">
-        <v>71.65634810728034</v>
+        <v>71.65634810728008</v>
       </c>
       <c r="P11" t="n">
-        <v>12.24261899741015</v>
+        <v>12.24261899741003</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>27.43799724527562</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>71.65634810728034</v>
+        <v>71.65634810728008</v>
       </c>
       <c r="M12" t="n">
-        <v>71.65634810728034</v>
+        <v>43.61079071480077</v>
       </c>
       <c r="N12" t="n">
-        <v>66.05053674805427</v>
+        <v>69.20805986353918</v>
       </c>
       <c r="O12" t="n">
-        <v>46.92895623709827</v>
+        <v>27.59863965208766</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>71.65634810728008</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>56.5185231257376</v>
       </c>
       <c r="M14" t="n">
-        <v>71.65634810728032</v>
+        <v>71.65634810728037</v>
       </c>
       <c r="N14" t="n">
-        <v>71.65634810728032</v>
+        <v>71.65634810728037</v>
       </c>
       <c r="O14" t="n">
-        <v>71.65634810728032</v>
+        <v>71.65634810728037</v>
       </c>
       <c r="P14" t="n">
         <v>12.24261899741015</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>27.43799724527562</v>
       </c>
       <c r="L15" t="n">
-        <v>71.65634810728032</v>
+        <v>71.65634810728037</v>
       </c>
       <c r="M15" t="n">
-        <v>71.65634810728032</v>
+        <v>43.61079071480088</v>
       </c>
       <c r="N15" t="n">
-        <v>68.76114212314781</v>
+        <v>69.3687022703517</v>
       </c>
       <c r="O15" t="n">
-        <v>71.65634810728032</v>
+        <v>71.65634810728037</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>56.51852312573754</v>
+        <v>56.5185231257376</v>
       </c>
       <c r="M17" t="n">
-        <v>75.0382614748651</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="N17" t="n">
-        <v>75.0382614748651</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="O17" t="n">
-        <v>75.0382614748651</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="P17" t="n">
-        <v>12.24261899741009</v>
+        <v>12.24261899741015</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>12.8672015297216</v>
       </c>
       <c r="M18" t="n">
-        <v>68.12693572347497</v>
+        <v>68.12693572347446</v>
       </c>
       <c r="N18" t="n">
-        <v>66.05053674805421</v>
+        <v>66.05053674805427</v>
       </c>
       <c r="O18" t="n">
-        <v>75.0382614748651</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="P18" t="n">
-        <v>75.0382614748651</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>56.51852312573754</v>
+        <v>56.5185231257376</v>
       </c>
       <c r="M20" t="n">
-        <v>75.0382614748651</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="N20" t="n">
-        <v>75.0382614748651</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="O20" t="n">
-        <v>75.0382614748651</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="P20" t="n">
-        <v>12.24261899741009</v>
+        <v>12.24261899741015</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>75.0382614748651</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="M21" t="n">
-        <v>75.0382614748651</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="N21" t="n">
-        <v>72.00641252638567</v>
+        <v>72.00641252638547</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0382614748651</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36363,19 +36363,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>56.51852312573754</v>
+        <v>56.5185231257376</v>
       </c>
       <c r="M23" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="N23" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="O23" t="n">
-        <v>75.03826147486481</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="P23" t="n">
-        <v>12.24261899741009</v>
+        <v>12.24261899741015</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>27.43799724527562</v>
       </c>
       <c r="L24" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="M24" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="N24" t="n">
-        <v>103.1720118878796</v>
+        <v>74.00687197272875</v>
       </c>
       <c r="O24" t="n">
-        <v>27.59863965208771</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="P24" t="n">
-        <v>76.39044981048362</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>56.51852312573754</v>
+        <v>56.5185231257376</v>
       </c>
       <c r="M26" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="N26" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="O26" t="n">
-        <v>75.03826147486481</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="P26" t="n">
-        <v>12.24261899741009</v>
+        <v>12.24261899741015</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>27.43799724527562</v>
       </c>
       <c r="L27" t="n">
-        <v>105.7162321324466</v>
+        <v>12.8672015297216</v>
       </c>
       <c r="M27" t="n">
-        <v>105.7162321324466</v>
+        <v>90.46545276497018</v>
       </c>
       <c r="N27" t="n">
-        <v>101.4448692180043</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="O27" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>76.39044981048362</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>56.51852312573754</v>
+        <v>56.5185231257376</v>
       </c>
       <c r="M29" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="N29" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="O29" t="n">
-        <v>75.03826147486481</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="P29" t="n">
-        <v>12.24261899741009</v>
+        <v>12.24261899741015</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>87.15986082516643</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="M30" t="n">
-        <v>43.61079071480086</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="N30" t="n">
-        <v>105.7162321324466</v>
+        <v>103.1720118878797</v>
       </c>
       <c r="O30" t="n">
-        <v>105.7162321324466</v>
+        <v>27.59863965208774</v>
       </c>
       <c r="P30" t="n">
         <v>76.39044981048362</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>56.51852312573754</v>
+        <v>56.5185231257376</v>
       </c>
       <c r="M32" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="N32" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="O32" t="n">
-        <v>75.03826147486481</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="P32" t="n">
-        <v>12.24261899741009</v>
+        <v>12.24261899741015</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>105.7162321324466</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="M33" t="n">
-        <v>103.1720118878796</v>
+        <v>105.7162321324467</v>
       </c>
       <c r="N33" t="n">
-        <v>105.7162321324466</v>
+        <v>103.1720118878797</v>
       </c>
       <c r="O33" t="n">
-        <v>27.59863965208771</v>
+        <v>27.59863965208774</v>
       </c>
       <c r="P33" t="n">
         <v>76.39044981048362</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>56.51852312573754</v>
+        <v>56.5185231257376</v>
       </c>
       <c r="M35" t="n">
-        <v>75.03826147486481</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="N35" t="n">
-        <v>75.03826147486481</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="O35" t="n">
-        <v>75.03826147486481</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="P35" t="n">
-        <v>12.24261899741009</v>
+        <v>12.24261899741015</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>27.4379972452756</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>12.8672015297216</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="M36" t="n">
-        <v>43.61079071480086</v>
+        <v>43.61079071480088</v>
       </c>
       <c r="N36" t="n">
-        <v>75.03826147486481</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="O36" t="n">
-        <v>63.12868451145219</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="P36" t="n">
-        <v>75.03826147486481</v>
+        <v>28.39562181158458</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>56.51852312573754</v>
+        <v>56.5185231257376</v>
       </c>
       <c r="M38" t="n">
-        <v>75.03826147486484</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="N38" t="n">
-        <v>75.03826147486484</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="O38" t="n">
-        <v>75.03826147486484</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="P38" t="n">
-        <v>12.24261899741009</v>
+        <v>12.24261899741015</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>27.4379972452756</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>75.03826147486484</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="M39" t="n">
-        <v>43.61079071480086</v>
+        <v>53.39549760110831</v>
       </c>
       <c r="N39" t="n">
-        <v>66.05053674805421</v>
+        <v>66.05053674805427</v>
       </c>
       <c r="O39" t="n">
-        <v>27.59863965208771</v>
+        <v>27.59863965208774</v>
       </c>
       <c r="P39" t="n">
-        <v>57.38497111589675</v>
+        <v>75.03826147486487</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>56.51852312573754</v>
+        <v>56.5185231257376</v>
       </c>
       <c r="M41" t="n">
-        <v>71.65634810728022</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="N41" t="n">
-        <v>71.65634810728022</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="O41" t="n">
-        <v>71.65634810728022</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="P41" t="n">
-        <v>12.24261899741009</v>
+        <v>12.24261899741015</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>27.4379972452756</v>
+        <v>27.43799724527562</v>
       </c>
       <c r="L42" t="n">
-        <v>12.8672015297216</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="M42" t="n">
-        <v>43.61079071480086</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="N42" t="n">
-        <v>66.05053674805421</v>
+        <v>66.05053674805427</v>
       </c>
       <c r="O42" t="n">
-        <v>62.10731209985586</v>
+        <v>46.92895623709827</v>
       </c>
       <c r="P42" t="n">
-        <v>71.65634810728022</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>56.51852312573754</v>
+        <v>56.5185231257376</v>
       </c>
       <c r="M44" t="n">
-        <v>71.65634810728022</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="N44" t="n">
-        <v>71.65634810728022</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="O44" t="n">
-        <v>71.65634810728022</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="P44" t="n">
-        <v>12.24261899741009</v>
+        <v>12.24261899741015</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>27.4379972452756</v>
+        <v>27.43799724527562</v>
       </c>
       <c r="L45" t="n">
-        <v>19.33031658501039</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="M45" t="n">
-        <v>71.65634810728022</v>
+        <v>71.65634810728034</v>
       </c>
       <c r="N45" t="n">
-        <v>66.05053674805421</v>
+        <v>66.05053674805427</v>
       </c>
       <c r="O45" t="n">
-        <v>27.59863965208771</v>
+        <v>46.92895623709827</v>
       </c>
       <c r="P45" t="n">
-        <v>71.65634810728022</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
